--- a/FXU.xlsx
+++ b/FXU.xlsx
@@ -516,16 +516,16 @@
         <v>45559</v>
       </c>
       <c r="B2" t="n">
-        <v>37.35718506843051</v>
+        <v>37.35718889412985</v>
       </c>
       <c r="C2" t="n">
-        <v>37.65018185324774</v>
+        <v>37.65018570895248</v>
       </c>
       <c r="D2" t="n">
-        <v>37.22045348389289</v>
+        <v>37.22045729558972</v>
       </c>
       <c r="E2" t="n">
-        <v>37.24975204467773</v>
+        <v>37.249755859375</v>
       </c>
       <c r="F2" t="n">
         <v>63500</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006292500234771792</v>
+        <v>0.006292397181713927</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006292500234771792</v>
+        <v>0.006292397181713927</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -615,7 +615,7 @@
         <v>-0.00427559095825425</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001990005119408833</v>
+        <v>0.001989902506963848</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -626,16 +626,16 @@
         <v>45562</v>
       </c>
       <c r="B5" t="n">
-        <v>37.42220773684371</v>
+        <v>37.42221152664737</v>
       </c>
       <c r="C5" t="n">
-        <v>37.74667578401357</v>
+        <v>37.74667960667659</v>
       </c>
       <c r="D5" t="n">
-        <v>37.42220773684371</v>
+        <v>37.42221152664737</v>
       </c>
       <c r="E5" t="n">
-        <v>37.66801834106445</v>
+        <v>37.66802215576172</v>
       </c>
       <c r="F5" t="n">
         <v>167000</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009220346494272169</v>
+        <v>0.009220448699545303</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01122870015040722</v>
+        <v>0.01122869900049173</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -664,16 +664,16 @@
         <v>45565</v>
       </c>
       <c r="B6" t="n">
-        <v>37.74667496552084</v>
+        <v>37.74667877129598</v>
       </c>
       <c r="C6" t="n">
-        <v>37.86466300277215</v>
+        <v>37.86466682044333</v>
       </c>
       <c r="D6" t="n">
-        <v>37.4517029970065</v>
+        <v>37.45170677304135</v>
       </c>
       <c r="E6" t="n">
-        <v>37.83516693115234</v>
+        <v>37.83517074584961</v>
       </c>
       <c r="F6" t="n">
         <v>60800</v>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004437413950860059</v>
+        <v>0.004437413501476417</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01571594049196468</v>
+        <v>0.01571593888251699</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006236979825699374</v>
+        <v>0.006236878372755328</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02205094032145438</v>
+        <v>0.02205083565459631</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -767,7 +767,7 @@
         <v>-0.001291266780105493</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02073119989464178</v>
+        <v>0.02073109536293649</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -778,16 +778,16 @@
         <v>45568</v>
       </c>
       <c r="B9" t="n">
-        <v>38.12030623816879</v>
+        <v>38.12031006075394</v>
       </c>
       <c r="C9" t="n">
-        <v>38.20879819941779</v>
+        <v>38.20880203087665</v>
       </c>
       <c r="D9" t="n">
-        <v>37.96298761270076</v>
+        <v>37.96299141951051</v>
       </c>
       <c r="E9" t="n">
-        <v>38.04164505004883</v>
+        <v>38.04164886474609</v>
       </c>
       <c r="F9" t="n">
         <v>52700</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0005170942593406558</v>
+        <v>0.0005171945880677598</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02125901413843723</v>
+        <v>0.02125901196133073</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0005170275648092026</v>
+        <v>0.0005169272360989741</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02178703319955666</v>
+        <v>0.02178692855972497</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -881,7 +881,7 @@
         <v>-0.01601656519715022</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005421514564713181</v>
+        <v>0.005421411600852188</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -892,16 +892,16 @@
         <v>45573</v>
       </c>
       <c r="B12" t="n">
-        <v>37.5107037427229</v>
+        <v>37.51069991498211</v>
       </c>
       <c r="C12" t="n">
-        <v>37.58936119414012</v>
+        <v>37.58935735837282</v>
       </c>
       <c r="D12" t="n">
-        <v>37.37304663889078</v>
+        <v>37.37304282519707</v>
       </c>
       <c r="E12" t="n">
-        <v>37.38288116455078</v>
+        <v>37.38287734985352</v>
       </c>
       <c r="F12" t="n">
         <v>68600</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.001837592138067667</v>
+        <v>-0.00183769399451339</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003573959894104917</v>
+        <v>0.003573754710798127</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -930,16 +930,16 @@
         <v>45574</v>
       </c>
       <c r="B13" t="n">
-        <v>37.2943864328179</v>
+        <v>37.294382594848</v>
       </c>
       <c r="C13" t="n">
-        <v>37.34354780516905</v>
+        <v>37.34354396213995</v>
       </c>
       <c r="D13" t="n">
-        <v>36.89125717830279</v>
+        <v>36.89125338181896</v>
       </c>
       <c r="E13" t="n">
-        <v>37.06824111938477</v>
+        <v>37.0682373046875</v>
       </c>
       <c r="F13" t="n">
         <v>67900</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.008416687942832568</v>
+        <v>-0.008416688801704764</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.00487280895387654</v>
+        <v>-0.004873013272161053</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.004774618082522997</v>
+        <v>-0.004774515663745649</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.009624161234655704</v>
+        <v>-0.009624262657709104</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1033,7 +1033,7 @@
         <v>0.009861417143384177</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001423480401383515</v>
+        <v>0.0001422456169100084</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
         <v>0.0113486437749668</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01149260727230472</v>
+        <v>0.01149250368671173</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
         <v>0.004436357436482297</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01597995002252417</v>
+        <v>0.01597984597738833</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
         <v>0.01662762427375108</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03287328290116309</v>
+        <v>0.03287317712600379</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1158,16 +1158,16 @@
         <v>45582</v>
       </c>
       <c r="B19" t="n">
-        <v>38.54310074738382</v>
+        <v>38.54310461236549</v>
       </c>
       <c r="C19" t="n">
-        <v>38.61192741160284</v>
+        <v>38.61193128348623</v>
       </c>
       <c r="D19" t="n">
-        <v>38.04164505004883</v>
+        <v>38.04164886474609</v>
       </c>
       <c r="E19" t="n">
-        <v>38.04164505004883</v>
+        <v>38.04164886474609</v>
       </c>
       <c r="F19" t="n">
         <v>48400</v>
@@ -1182,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01124462115052849</v>
+        <v>-0.0112445220012295</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02125901413843678</v>
+        <v>0.02125901196133073</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1196,16 +1196,16 @@
         <v>45583</v>
       </c>
       <c r="B20" t="n">
-        <v>38.02198417701788</v>
+        <v>38.02198038974359</v>
       </c>
       <c r="C20" t="n">
-        <v>38.31695991601734</v>
+        <v>38.31695609936126</v>
       </c>
       <c r="D20" t="n">
-        <v>38.01215340274498</v>
+        <v>38.01214961644991</v>
       </c>
       <c r="E20" t="n">
-        <v>38.29729461669922</v>
+        <v>38.29729080200195</v>
       </c>
       <c r="F20" t="n">
         <v>27500</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006720255296900346</v>
+        <v>0.006720054069285331</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02812213543770792</v>
+        <v>0.02812192774045585</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1258,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.003851223867228803</v>
+        <v>-0.003851124643342918</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02416260693128391</v>
+        <v>0.02416250204817327</v>
       </c>
       <c r="L21" t="n">
         <v>76370</v>
       </c>
       <c r="M21" t="n">
-        <v>37.71460247039795</v>
+        <v>37.71460285186767</v>
       </c>
       <c r="N21" t="inlineStr"/>
     </row>
@@ -1303,13 +1303,13 @@
         <v>-0.003865813156663789</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0202033856508459</v>
+        <v>0.02020328117319381</v>
       </c>
       <c r="L22" t="n">
         <v>74475</v>
       </c>
       <c r="M22" t="n">
-        <v>37.7522310256958</v>
+        <v>37.75223121643067</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1345,13 +1345,13 @@
         <v>0.007244369926323602</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02759411637658848</v>
+        <v>0.02759401114206161</v>
       </c>
       <c r="L23" t="n">
         <v>67460</v>
       </c>
       <c r="M23" t="n">
-        <v>37.79190502166748</v>
+        <v>37.79190521240234</v>
       </c>
       <c r="N23" t="inlineStr"/>
     </row>
@@ -1387,13 +1387,13 @@
         <v>-0.00231188180481845</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02521844023619901</v>
+        <v>0.02521833524496198</v>
       </c>
       <c r="L24" t="n">
         <v>65005</v>
       </c>
       <c r="M24" t="n">
-        <v>37.83516769409179</v>
+        <v>37.83516788482666</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1429,7 +1429,7 @@
         <v>-0.01313068796366257</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01175661680286466</v>
+        <v>0.01175651319023485</v>
       </c>
       <c r="L25" t="n">
         <v>58935</v>
@@ -1471,13 +1471,13 @@
         <v>0.006261387100692239</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01809161663235415</v>
+        <v>0.01809151237096551</v>
       </c>
       <c r="L26" t="n">
         <v>65205</v>
       </c>
       <c r="M26" t="n">
-        <v>37.84057559967041</v>
+        <v>37.84057540893555</v>
       </c>
       <c r="N26" t="inlineStr"/>
     </row>
@@ -1513,13 +1513,13 @@
         <v>-0.01503752969885708</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002782033711087761</v>
+        <v>0.002781931017532768</v>
       </c>
       <c r="L27" t="n">
         <v>63205</v>
       </c>
       <c r="M27" t="n">
-        <v>37.8046875</v>
+        <v>37.80468730926513</v>
       </c>
       <c r="N27" t="inlineStr"/>
     </row>
@@ -1555,13 +1555,13 @@
         <v>-0.001842633220196399</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0009342742231555068</v>
+        <v>0.0009341717188271481</v>
       </c>
       <c r="L28" t="n">
         <v>62880</v>
       </c>
       <c r="M28" t="n">
-        <v>37.76781597137451</v>
+        <v>37.76781578063965</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1597,13 +1597,13 @@
         <v>0.01081224098166533</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01175661680286466</v>
+        <v>0.01175651319023463</v>
       </c>
       <c r="L29" t="n">
         <v>62460</v>
       </c>
       <c r="M29" t="n">
-        <v>37.75011787414551</v>
+        <v>37.75011749267578</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1612,16 +1612,16 @@
         <v>45597</v>
       </c>
       <c r="B30" t="n">
-        <v>37.73684706491967</v>
+        <v>37.73684316382482</v>
       </c>
       <c r="C30" t="n">
-        <v>37.74667783928403</v>
+        <v>37.7466739371729</v>
       </c>
       <c r="D30" t="n">
-        <v>36.86176186636983</v>
+        <v>36.86175805573802</v>
       </c>
       <c r="E30" t="n">
-        <v>36.90108871459961</v>
+        <v>36.90108489990234</v>
       </c>
       <c r="F30" t="n">
         <v>36800</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02087139155431394</v>
+        <v>-0.02087149277298672</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.009360151704095876</v>
+        <v>-0.009360355562837652</v>
       </c>
       <c r="L30" t="n">
         <v>59400</v>
       </c>
       <c r="M30" t="n">
-        <v>37.69210662841797</v>
+        <v>37.69210605621338</v>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.005595551263831822</v>
+        <v>-0.005595448465988917</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0149033277592302</v>
+        <v>-0.0149034286416514</v>
       </c>
       <c r="L31" t="n">
         <v>58640</v>
       </c>
       <c r="M31" t="n">
-        <v>37.65425186157226</v>
+        <v>37.65425128936768</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1723,13 +1723,13 @@
         <v>0.01795291971709712</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002782033711087761</v>
+        <v>0.002781931017532768</v>
       </c>
       <c r="L32" t="n">
         <v>56430</v>
       </c>
       <c r="M32" t="n">
-        <v>37.65277690887451</v>
+        <v>37.65277652740478</v>
       </c>
       <c r="N32" t="inlineStr"/>
     </row>
@@ -1738,16 +1738,16 @@
         <v>45602</v>
       </c>
       <c r="B33" t="n">
-        <v>37.17639817922721</v>
+        <v>37.17639439654416</v>
       </c>
       <c r="C33" t="n">
-        <v>37.58935820557323</v>
+        <v>37.58935438087167</v>
       </c>
       <c r="D33" t="n">
-        <v>37.17639817922721</v>
+        <v>37.17639439654416</v>
       </c>
       <c r="E33" t="n">
-        <v>37.49103546142578</v>
+        <v>37.49103164672852</v>
       </c>
       <c r="F33" t="n">
         <v>169100</v>
@@ -1762,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003685164315844647</v>
+        <v>0.003685062191296717</v>
       </c>
       <c r="K33" t="n">
-        <v>0.006477450278290053</v>
+        <v>0.006477244797640891</v>
       </c>
       <c r="L33" t="n">
         <v>61490</v>
       </c>
       <c r="M33" t="n">
-        <v>37.67391662597656</v>
+        <v>37.67391624450683</v>
       </c>
       <c r="N33" t="inlineStr"/>
     </row>
@@ -1780,16 +1780,16 @@
         <v>45603</v>
       </c>
       <c r="B34" t="n">
-        <v>37.74667822992417</v>
+        <v>37.74667439825957</v>
       </c>
       <c r="C34" t="n">
-        <v>37.84500472844713</v>
+        <v>37.84500088680141</v>
       </c>
       <c r="D34" t="n">
-        <v>37.42221016172942</v>
+        <v>37.42220636300157</v>
       </c>
       <c r="E34" t="n">
-        <v>37.57952880859375</v>
+        <v>37.57952499389648</v>
       </c>
       <c r="F34" t="n">
         <v>70600</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.002360386851918639</v>
+        <v>0.002360387092087191</v>
       </c>
       <c r="K34" t="n">
-        <v>0.008853126418679524</v>
+        <v>0.008852920694740751</v>
       </c>
       <c r="L34" t="n">
         <v>63200</v>
       </c>
       <c r="M34" t="n">
-        <v>37.70833034515381</v>
+        <v>37.70832977294922</v>
       </c>
       <c r="N34" t="inlineStr"/>
     </row>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0162217010474206</v>
+        <v>0.01622180420407693</v>
       </c>
       <c r="K35" t="n">
-        <v>0.02521844023619901</v>
+        <v>0.02521833524496198</v>
       </c>
       <c r="L35" t="n">
         <v>63160</v>
       </c>
       <c r="M35" t="n">
-        <v>37.75503425598144</v>
+        <v>37.75503368377686</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1864,16 +1864,16 @@
         <v>45607</v>
       </c>
       <c r="B36" t="n">
-        <v>38.28745388252678</v>
+        <v>38.28745767385667</v>
       </c>
       <c r="C36" t="n">
-        <v>38.62175641517587</v>
+        <v>38.62176023960933</v>
       </c>
       <c r="D36" t="n">
-        <v>38.28745388252678</v>
+        <v>38.28745767385667</v>
       </c>
       <c r="E36" t="n">
-        <v>38.52343368530273</v>
+        <v>38.5234375</v>
       </c>
       <c r="F36" t="n">
         <v>98000</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.008753825272308946</v>
+        <v>0.008753925161911091</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03419302332797591</v>
+        <v>0.0341930198263154</v>
       </c>
       <c r="L36" t="n">
         <v>61620</v>
       </c>
       <c r="M36" t="n">
-        <v>37.79731349945068</v>
+        <v>37.79731311798096</v>
       </c>
       <c r="N36" t="inlineStr"/>
     </row>
@@ -1930,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.008422580083925713</v>
+        <v>-0.008422678272662742</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02548244976675873</v>
+        <v>0.02548234474848488</v>
       </c>
       <c r="L37" t="n">
         <v>64530</v>
       </c>
       <c r="M37" t="n">
-        <v>37.81501178741455</v>
+        <v>37.81501140594482</v>
       </c>
       <c r="N37" t="inlineStr"/>
     </row>
@@ -1948,16 +1948,16 @@
         <v>45609</v>
       </c>
       <c r="B38" t="n">
-        <v>38.34645021953217</v>
+        <v>38.34645405983127</v>
       </c>
       <c r="C38" t="n">
-        <v>38.39561158504389</v>
+        <v>38.39561543026637</v>
       </c>
       <c r="D38" t="n">
-        <v>37.98265161381937</v>
+        <v>37.98265541768497</v>
       </c>
       <c r="E38" t="n">
-        <v>38.0908088684082</v>
+        <v>38.09081268310547</v>
       </c>
       <c r="F38" t="n">
         <v>25700</v>
@@ -1972,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.002831440746262848</v>
+        <v>-0.002831340882377353</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0225788569739116</v>
+        <v>0.02257885466164233</v>
       </c>
       <c r="L38" t="n">
         <v>62150</v>
       </c>
       <c r="M38" t="n">
-        <v>37.79583854675293</v>
+        <v>37.79583835601807</v>
       </c>
       <c r="N38" t="inlineStr"/>
     </row>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.007227641256221551</v>
+        <v>-0.007227740679828898</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01518802383950701</v>
+        <v>0.01518791987547163</v>
       </c>
       <c r="L39" t="n">
         <v>60435</v>
       </c>
       <c r="M39" t="n">
-        <v>37.78453140258789</v>
+        <v>37.78453102111816</v>
       </c>
       <c r="N39" t="inlineStr"/>
     </row>
@@ -2059,13 +2059,13 @@
         <v>0.01352048353760327</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02891385680340108</v>
+        <v>0.02891375143372166</v>
       </c>
       <c r="L40" t="n">
         <v>66460</v>
       </c>
       <c r="M40" t="n">
-        <v>37.78600597381592</v>
+        <v>37.78600578308105</v>
       </c>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2074,16 +2074,16 @@
         <v>45614</v>
       </c>
       <c r="B41" t="n">
-        <v>38.3169580404896</v>
+        <v>38.31695425782395</v>
       </c>
       <c r="C41" t="n">
-        <v>38.78891394870632</v>
+        <v>38.78891011944899</v>
       </c>
       <c r="D41" t="n">
-        <v>38.3169580404896</v>
+        <v>38.31695425782395</v>
       </c>
       <c r="E41" t="n">
-        <v>38.64142608642578</v>
+        <v>38.64142227172852</v>
       </c>
       <c r="F41" t="n">
         <v>31300</v>
@@ -2098,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.008209403335497356</v>
+        <v>0.00820930380465601</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03736062565138232</v>
+        <v>0.0373604170080295</v>
       </c>
       <c r="L41" t="n">
         <v>59440</v>
       </c>
       <c r="M41" t="n">
-        <v>37.81058712005616</v>
+        <v>37.81058673858642</v>
       </c>
       <c r="N41" t="inlineStr"/>
     </row>
@@ -2116,16 +2116,16 @@
         <v>45615</v>
       </c>
       <c r="B42" t="n">
-        <v>38.46444057854175</v>
+        <v>38.46444435654057</v>
       </c>
       <c r="C42" t="n">
-        <v>38.85773902801985</v>
+        <v>38.85774284464866</v>
       </c>
       <c r="D42" t="n">
-        <v>38.33662177061756</v>
+        <v>38.33662553606194</v>
       </c>
       <c r="E42" t="n">
-        <v>38.83807373046875</v>
+        <v>38.83807754516602</v>
       </c>
       <c r="F42" t="n">
         <v>40200</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.005089036921234413</v>
+        <v>0.005089234864457337</v>
       </c>
       <c r="K42" t="n">
-        <v>0.04263979217595693</v>
+        <v>0.0426397878092748</v>
       </c>
       <c r="L42" t="n">
         <v>60170</v>
       </c>
       <c r="M42" t="n">
-        <v>37.85237464904785</v>
+        <v>37.85237445831299</v>
       </c>
       <c r="N42" t="inlineStr"/>
     </row>
@@ -2182,16 +2182,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.002531634877255717</v>
+        <v>0.002531536408048929</v>
       </c>
       <c r="K43" t="n">
-        <v>0.04527937543824434</v>
+        <v>0.04527926839259444</v>
       </c>
       <c r="L43" t="n">
         <v>60945</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88531322479248</v>
+        <v>37.88531303405762</v>
       </c>
       <c r="N43" t="inlineStr"/>
     </row>
@@ -2227,13 +2227,13 @@
         <v>0.01969698468973524</v>
       </c>
       <c r="K44" t="n">
-        <v>0.06586822729274755</v>
+        <v>0.06586811813862092</v>
       </c>
       <c r="L44" t="n">
         <v>62315</v>
       </c>
       <c r="M44" t="n">
-        <v>37.96102294921875</v>
+        <v>37.96102275848389</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -2242,16 +2242,16 @@
         <v>45618</v>
       </c>
       <c r="B45" t="n">
-        <v>39.82132202435912</v>
+        <v>39.82131820116585</v>
       </c>
       <c r="C45" t="n">
-        <v>39.90981400111082</v>
+        <v>39.90981016942155</v>
       </c>
       <c r="D45" t="n">
-        <v>39.71316474713232</v>
+        <v>39.71316093432309</v>
       </c>
       <c r="E45" t="n">
-        <v>39.73283004760742</v>
+        <v>39.73282623291016</v>
       </c>
       <c r="F45" t="n">
         <v>52100</v>
@@ -2266,16 +2266,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0007430830297765478</v>
+        <v>0.0007429869497364017</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0666602558844267</v>
+        <v>0.06666004424053806</v>
       </c>
       <c r="L45" t="n">
         <v>62640</v>
       </c>
       <c r="M45" t="n">
-        <v>38.06328029632569</v>
+        <v>38.06327991485595</v>
       </c>
       <c r="N45" t="inlineStr"/>
     </row>
@@ -2308,16 +2308,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002474528172456303</v>
+        <v>0.002474624418739246</v>
       </c>
       <c r="K46" t="n">
-        <v>0.06929973673805212</v>
+        <v>0.06929962723250926</v>
       </c>
       <c r="L46" t="n">
         <v>65975</v>
       </c>
       <c r="M46" t="n">
-        <v>38.15865478515625</v>
+        <v>38.15865440368653</v>
       </c>
       <c r="N46" t="inlineStr"/>
     </row>
@@ -2353,13 +2353,13 @@
         <v>0.01505799407881847</v>
       </c>
       <c r="K47" t="n">
-        <v>0.08540124584233588</v>
+        <v>0.08540113468785915</v>
       </c>
       <c r="L47" t="n">
         <v>65275</v>
       </c>
       <c r="M47" t="n">
-        <v>38.31253204345703</v>
+        <v>38.31253166198731</v>
       </c>
       <c r="N47" t="inlineStr"/>
     </row>
@@ -2395,13 +2395,13 @@
         <v>-0.001945422680558306</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0832896816411679</v>
+        <v>0.08328957070293375</v>
       </c>
       <c r="L48" t="n">
         <v>64540</v>
       </c>
       <c r="M48" t="n">
-        <v>38.46591796875</v>
+        <v>38.46591758728027</v>
       </c>
       <c r="N48" t="inlineStr"/>
     </row>
@@ -2437,13 +2437,13 @@
         <v>0.0007308491709197007</v>
       </c>
       <c r="K49" t="n">
-        <v>0.08408140300686129</v>
+        <v>0.08408129198754799</v>
       </c>
       <c r="L49" t="n">
         <v>63430</v>
       </c>
       <c r="M49" t="n">
-        <v>38.60062198638916</v>
+        <v>38.60062160491943</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2479,13 +2479,13 @@
         <v>-0.02045279933934374</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06190890360364776</v>
+        <v>0.06190879485499012</v>
       </c>
       <c r="L50" t="n">
         <v>63305</v>
       </c>
       <c r="M50" t="n">
-        <v>38.73335971832275</v>
+        <v>38.73335952758789</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2521,13 +2521,13 @@
         <v>-0.004474350167566365</v>
       </c>
       <c r="K51" t="n">
-        <v>0.05715755132286859</v>
+        <v>0.0571574430607904</v>
       </c>
       <c r="L51" t="n">
         <v>66420</v>
       </c>
       <c r="M51" t="n">
-        <v>38.86757221221924</v>
+        <v>38.86757202148438</v>
       </c>
       <c r="N51" t="n">
         <v>38.15290466308593</v>
@@ -2538,16 +2538,16 @@
         <v>45630</v>
       </c>
       <c r="B52" t="n">
-        <v>39.4378517835362</v>
+        <v>39.43785560108866</v>
       </c>
       <c r="C52" t="n">
-        <v>39.5361745195361</v>
+        <v>39.53617834660613</v>
       </c>
       <c r="D52" t="n">
-        <v>39.28053315547319</v>
+        <v>39.28053695779734</v>
       </c>
       <c r="E52" t="n">
-        <v>39.40835571289062</v>
+        <v>39.40835952758789</v>
       </c>
       <c r="F52" t="n">
         <v>82000</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.00074910894977398</v>
+        <v>0.0007492058214861874</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05794947750588575</v>
+        <v>0.0579494715713591</v>
       </c>
       <c r="L52" t="n">
         <v>69300</v>
@@ -2582,16 +2582,16 @@
         <v>45631</v>
       </c>
       <c r="B53" t="n">
-        <v>39.41819053741259</v>
+        <v>39.41818672081127</v>
       </c>
       <c r="C53" t="n">
-        <v>39.65417037914608</v>
+        <v>39.65416653969639</v>
       </c>
       <c r="D53" t="n">
-        <v>39.38869446373553</v>
+        <v>39.38869064999012</v>
       </c>
       <c r="E53" t="n">
-        <v>39.39852523803711</v>
+        <v>39.39852142333984</v>
       </c>
       <c r="F53" t="n">
         <v>73400</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.0002494515357386318</v>
+        <v>-0.0002496451099711638</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05768557038398803</v>
+        <v>0.05768535965918464</v>
       </c>
       <c r="L53" t="n">
         <v>64515</v>
@@ -2618,7 +2618,7 @@
         <v>39.06569538116455</v>
       </c>
       <c r="N53" t="n">
-        <v>38.23436431884765</v>
+        <v>38.23436424255371</v>
       </c>
     </row>
     <row r="54">
@@ -2650,19 +2650,19 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.01073131936243377</v>
+        <v>-0.01073122357811507</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04633520874315944</v>
+        <v>0.04633510158938292</v>
       </c>
       <c r="L54" t="n">
         <v>62320</v>
       </c>
       <c r="M54" t="n">
-        <v>39.13550529479981</v>
+        <v>39.13550548553467</v>
       </c>
       <c r="N54" t="n">
-        <v>38.26740127563477</v>
+        <v>38.26740119934082</v>
       </c>
     </row>
     <row r="55">
@@ -2697,16 +2697,16 @@
         <v>-0.01109985237715072</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03472104238909512</v>
+        <v>0.03472093642470986</v>
       </c>
       <c r="L55" t="n">
         <v>62265</v>
       </c>
       <c r="M55" t="n">
-        <v>39.15320377349853</v>
+        <v>39.1532039642334</v>
       </c>
       <c r="N55" t="n">
-        <v>38.28490295410156</v>
+        <v>38.28490280151367</v>
       </c>
     </row>
     <row r="56">
@@ -2714,16 +2714,16 @@
         <v>45636</v>
       </c>
       <c r="B56" t="n">
-        <v>38.49394385910809</v>
+        <v>38.49394002482308</v>
       </c>
       <c r="C56" t="n">
-        <v>38.49394385910809</v>
+        <v>38.49394002482308</v>
       </c>
       <c r="D56" t="n">
-        <v>38.05148400138122</v>
+        <v>38.05148021116853</v>
       </c>
       <c r="E56" t="n">
-        <v>38.29729461669922</v>
+        <v>38.29729080200195</v>
       </c>
       <c r="F56" t="n">
         <v>64200</v>
@@ -2738,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.006377474392664229</v>
+        <v>-0.006377573364906852</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02812213543770792</v>
+        <v>0.02812192774045608</v>
       </c>
       <c r="L56" t="n">
         <v>60575</v>
       </c>
       <c r="M56" t="n">
-        <v>39.14189682006836</v>
+        <v>39.14189662933349</v>
       </c>
       <c r="N56" t="n">
-        <v>38.2941455078125</v>
+        <v>38.29414520263672</v>
       </c>
     </row>
     <row r="57">
@@ -2782,19 +2782,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.001797317490696115</v>
+        <v>-0.001797218062225769</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02627427354111389</v>
+        <v>0.02627416844175046</v>
       </c>
       <c r="L57" t="n">
         <v>61340</v>
       </c>
       <c r="M57" t="n">
-        <v>39.14337158203125</v>
+        <v>39.14337139129638</v>
       </c>
       <c r="N57" t="n">
-        <v>38.29729187011718</v>
+        <v>38.2972915649414</v>
       </c>
     </row>
     <row r="58">
@@ -2829,16 +2829,16 @@
         <v>-0.0007715518110212871</v>
       </c>
       <c r="K58" t="n">
-        <v>0.02548244976675873</v>
+        <v>0.02548234474848488</v>
       </c>
       <c r="L58" t="n">
         <v>65800</v>
       </c>
       <c r="M58" t="n">
-        <v>39.14877948760986</v>
+        <v>39.14877910614014</v>
       </c>
       <c r="N58" t="n">
-        <v>38.30083152770996</v>
+        <v>38.30083122253418</v>
       </c>
     </row>
     <row r="59">
@@ -2846,16 +2846,16 @@
         <v>45639</v>
       </c>
       <c r="B59" t="n">
-        <v>38.26331605610818</v>
+        <v>38.26331988070113</v>
       </c>
       <c r="C59" t="n">
-        <v>38.31281506088651</v>
+        <v>38.31281889042711</v>
       </c>
       <c r="D59" t="n">
-        <v>38.13461562245893</v>
+        <v>38.13461943418768</v>
       </c>
       <c r="E59" t="n">
-        <v>38.16431427001953</v>
+        <v>38.1643180847168</v>
       </c>
       <c r="F59" t="n">
         <v>133800</v>
@@ -2870,19 +2870,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.0009071635361003194</v>
+        <v>-0.0009070636722148251</v>
       </c>
       <c r="K59" t="n">
-        <v>0.02455216948141947</v>
+        <v>0.02455216696706586</v>
       </c>
       <c r="L59" t="n">
         <v>71785</v>
       </c>
       <c r="M59" t="n">
-        <v>39.16622009277344</v>
+        <v>39.16621990203858</v>
       </c>
       <c r="N59" t="n">
-        <v>38.30328491210938</v>
+        <v>38.30328460693359</v>
       </c>
     </row>
     <row r="60">
@@ -2890,16 +2890,16 @@
         <v>45642</v>
       </c>
       <c r="B60" t="n">
-        <v>38.15441688407888</v>
+        <v>38.15442071867553</v>
       </c>
       <c r="C60" t="n">
-        <v>38.29301561135631</v>
+        <v>38.29301945988242</v>
       </c>
       <c r="D60" t="n">
-        <v>37.95641708374023</v>
+        <v>37.9564208984375</v>
       </c>
       <c r="E60" t="n">
-        <v>37.95641708374023</v>
+        <v>37.9564208984375</v>
       </c>
       <c r="F60" t="n">
         <v>46600</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.00544742360123085</v>
+        <v>-0.005447423056736067</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01897099981269412</v>
+        <v>0.01897099786990064</v>
       </c>
       <c r="L60" t="n">
         <v>66715</v>
@@ -2926,7 +2926,7 @@
         <v>39.14770164489746</v>
       </c>
       <c r="N60" t="n">
-        <v>38.30118698120117</v>
+        <v>38.30118675231934</v>
       </c>
     </row>
     <row r="61">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.008085589947464555</v>
+        <v>-0.008085689636874061</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0107320181398507</v>
+        <v>0.01073191463214873</v>
       </c>
       <c r="L61" t="n">
         <v>69040</v>
       </c>
       <c r="M61" t="n">
-        <v>39.09810619354248</v>
+        <v>39.09810638427734</v>
       </c>
       <c r="N61" t="n">
-        <v>38.3051432800293</v>
+        <v>38.30514305114746</v>
       </c>
     </row>
     <row r="62">
@@ -2978,16 +2978,16 @@
         <v>45644</v>
       </c>
       <c r="B62" t="n">
-        <v>37.65942317947546</v>
+        <v>37.65941927338982</v>
       </c>
       <c r="C62" t="n">
-        <v>37.71882048216835</v>
+        <v>37.71881656992195</v>
       </c>
       <c r="D62" t="n">
-        <v>36.7684258737574</v>
+        <v>36.7684220600872</v>
       </c>
       <c r="E62" t="n">
-        <v>36.77832794189453</v>
+        <v>36.77832412719727</v>
       </c>
       <c r="F62" t="n">
         <v>35100</v>
@@ -3002,19 +3002,19 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.02313944999769491</v>
+        <v>-0.02313955131897505</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.01265576485496567</v>
+        <v>-0.01265596837620775</v>
       </c>
       <c r="L62" t="n">
         <v>68785</v>
       </c>
       <c r="M62" t="n">
-        <v>38.99511890411377</v>
+        <v>38.99511871337891</v>
       </c>
       <c r="N62" t="n">
-        <v>38.29305221557618</v>
+        <v>38.29305198669434</v>
       </c>
     </row>
     <row r="63">
@@ -3022,16 +3022,16 @@
         <v>45645</v>
       </c>
       <c r="B63" t="n">
-        <v>36.83772566443734</v>
+        <v>36.83772187114796</v>
       </c>
       <c r="C63" t="n">
-        <v>37.40202270564608</v>
+        <v>37.40201885424936</v>
       </c>
       <c r="D63" t="n">
-        <v>36.83772566443734</v>
+        <v>36.83772187114796</v>
       </c>
       <c r="E63" t="n">
-        <v>37.04562377929688</v>
+        <v>37.04561996459961</v>
       </c>
       <c r="F63" t="n">
         <v>69900</v>
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.007267753929016019</v>
+        <v>0.007267754682837246</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.005479989910698979</v>
+        <v>-0.005480194166802566</v>
       </c>
       <c r="L63" t="n">
         <v>70575</v>
       </c>
       <c r="M63" t="n">
-        <v>38.9005802154541</v>
+        <v>38.90057983398437</v>
       </c>
       <c r="N63" t="n">
-        <v>38.29259986877442</v>
+        <v>38.29259963989258</v>
       </c>
     </row>
     <row r="64">
@@ -3090,19 +3090,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.01122394887269329</v>
+        <v>0.01122405300141982</v>
       </c>
       <c r="K64" t="n">
-        <v>0.005682451835413715</v>
+        <v>0.005682348844830987</v>
       </c>
       <c r="L64" t="n">
         <v>71770</v>
       </c>
       <c r="M64" t="n">
-        <v>38.78848495483398</v>
+        <v>38.78848457336426</v>
       </c>
       <c r="N64" t="n">
-        <v>38.30400321960449</v>
+        <v>38.30400299072266</v>
       </c>
     </row>
     <row r="65">
@@ -3137,16 +3137,16 @@
         <v>0.003171190414292369</v>
       </c>
       <c r="K65" t="n">
-        <v>0.008871662386496171</v>
+        <v>0.008871559069310697</v>
       </c>
       <c r="L65" t="n">
         <v>70935</v>
       </c>
       <c r="M65" t="n">
-        <v>38.68085441589356</v>
+        <v>38.68085422515869</v>
       </c>
       <c r="N65" t="n">
-        <v>38.31050651550293</v>
+        <v>38.31050628662109</v>
       </c>
     </row>
     <row r="66">
@@ -3154,16 +3154,16 @@
         <v>45650</v>
       </c>
       <c r="B66" t="n">
-        <v>37.56041681913828</v>
+        <v>37.56042060787142</v>
       </c>
       <c r="C66" t="n">
-        <v>37.83761804532536</v>
+        <v>37.83762186201989</v>
       </c>
       <c r="D66" t="n">
-        <v>37.56041681913828</v>
+        <v>37.56042060787142</v>
       </c>
       <c r="E66" t="n">
-        <v>37.81781768798828</v>
+        <v>37.81782150268555</v>
       </c>
       <c r="F66" t="n">
         <v>26200</v>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.006322433019615659</v>
+        <v>0.006322534527732016</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01525018589732308</v>
+        <v>0.01525018433557324</v>
       </c>
       <c r="L66" t="n">
         <v>59600</v>
@@ -3190,7 +3190,7 @@
         <v>38.58018779754639</v>
       </c>
       <c r="N66" t="n">
-        <v>38.31330589294434</v>
+        <v>38.31330574035645</v>
       </c>
     </row>
     <row r="67">
@@ -3222,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.0007853767014057711</v>
+        <v>-0.0007854774925444286</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01445283205522152</v>
+        <v>0.01445272816647614</v>
       </c>
       <c r="L67" t="n">
         <v>60340</v>
@@ -3234,7 +3234,7 @@
         <v>38.44804725646973</v>
       </c>
       <c r="N67" t="n">
-        <v>38.31216819763183</v>
+        <v>38.31216804504395</v>
       </c>
     </row>
     <row r="68">
@@ -3269,7 +3269,7 @@
         <v>-0.004453696816694053</v>
       </c>
       <c r="K68" t="n">
-        <v>0.009934766706410914</v>
+        <v>0.009934663280354528</v>
       </c>
       <c r="L68" t="n">
         <v>61680</v>
@@ -3278,7 +3278,7 @@
         <v>38.31142463684082</v>
       </c>
       <c r="N68" t="n">
-        <v>38.29507911682129</v>
+        <v>38.2950789642334</v>
       </c>
     </row>
     <row r="69">
@@ -3286,16 +3286,16 @@
         <v>45656</v>
       </c>
       <c r="B69" t="n">
-        <v>37.43171966995743</v>
+        <v>37.43172347258616</v>
       </c>
       <c r="C69" t="n">
-        <v>37.60991910712027</v>
+        <v>37.609922927852</v>
       </c>
       <c r="D69" t="n">
-        <v>37.19411916156299</v>
+        <v>37.19412294005426</v>
       </c>
       <c r="E69" t="n">
-        <v>37.55051803588867</v>
+        <v>37.55052185058594</v>
       </c>
       <c r="F69" t="n">
         <v>333100</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.001842156764326197</v>
+        <v>-0.001842055363062145</v>
       </c>
       <c r="K69" t="n">
-        <v>0.008074308544394393</v>
+        <v>0.008074307717516493</v>
       </c>
       <c r="L69" t="n">
         <v>77230</v>
       </c>
       <c r="M69" t="n">
-        <v>38.16986236572266</v>
+        <v>38.16986255645752</v>
       </c>
       <c r="N69" t="n">
-        <v>38.28525657653809</v>
+        <v>38.28525642395019</v>
       </c>
     </row>
     <row r="70">
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.002636320719879848</v>
+        <v>-0.002636422040455777</v>
       </c>
       <c r="K70" t="n">
-        <v>0.005416701357600306</v>
+        <v>0.005416598394232919</v>
       </c>
       <c r="L70" t="n">
         <v>77870</v>
       </c>
       <c r="M70" t="n">
-        <v>38.06464633941651</v>
+        <v>38.06464653015136</v>
       </c>
       <c r="N70" t="n">
-        <v>38.26834114074707</v>
+        <v>38.26834106445312</v>
       </c>
     </row>
     <row r="71">
@@ -3401,16 +3401,16 @@
         <v>0.008194492147441501</v>
       </c>
       <c r="K71" t="n">
-        <v>0.01365558062178174</v>
+        <v>0.01365547681468171</v>
       </c>
       <c r="L71" t="n">
         <v>77210</v>
       </c>
       <c r="M71" t="n">
-        <v>37.98362445831299</v>
+        <v>37.98362464904785</v>
       </c>
       <c r="N71" t="n">
-        <v>38.26051345825195</v>
+        <v>38.26051338195801</v>
       </c>
     </row>
     <row r="72">
@@ -3445,7 +3445,7 @@
         <v>0.01363397154395529</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02747573196335051</v>
+        <v>0.0274756267409475</v>
       </c>
       <c r="L72" t="n">
         <v>76740</v>
@@ -3454,7 +3454,7 @@
         <v>37.92686748504639</v>
       </c>
       <c r="N72" t="n">
-        <v>38.26593132019043</v>
+        <v>38.26593124389648</v>
       </c>
     </row>
     <row r="73">
@@ -3489,16 +3489,16 @@
         <v>-0.0124159107848486</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01471868494169648</v>
+        <v>0.01471858102572554</v>
       </c>
       <c r="L73" t="n">
         <v>77780</v>
       </c>
       <c r="M73" t="n">
-        <v>37.84684219360351</v>
+        <v>37.84684238433838</v>
       </c>
       <c r="N73" t="n">
-        <v>38.25633918762207</v>
+        <v>38.25633911132812</v>
       </c>
     </row>
     <row r="74">
@@ -3533,16 +3533,16 @@
         <v>0.00209526666131099</v>
       </c>
       <c r="K74" t="n">
-        <v>0.01684479117286419</v>
+        <v>0.01684468703916164</v>
       </c>
       <c r="L74" t="n">
         <v>86145</v>
       </c>
       <c r="M74" t="n">
-        <v>37.79191665649414</v>
+        <v>37.791916847229</v>
       </c>
       <c r="N74" t="n">
-        <v>38.2501008605957</v>
+        <v>38.25010078430176</v>
       </c>
     </row>
     <row r="75">
@@ -3550,16 +3550,16 @@
         <v>45665</v>
       </c>
       <c r="B75" t="n">
-        <v>37.80791908885083</v>
+        <v>37.80791527914171</v>
       </c>
       <c r="C75" t="n">
-        <v>37.857421875</v>
+        <v>37.85741806030273</v>
       </c>
       <c r="D75" t="n">
-        <v>37.36242422576719</v>
+        <v>37.36242046094828</v>
       </c>
       <c r="E75" t="n">
-        <v>37.857421875</v>
+        <v>37.85741806030273</v>
       </c>
       <c r="F75" t="n">
         <v>92200</v>
@@ -3574,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.0005225955343209909</v>
+        <v>-0.0005226962465071372</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01631339262589959</v>
+        <v>0.01631318613796551</v>
       </c>
       <c r="L75" t="n">
         <v>89295</v>
@@ -3586,7 +3586,7 @@
         <v>37.75763263702392</v>
       </c>
       <c r="N75" t="n">
-        <v>38.25349563598633</v>
+        <v>38.25349548339844</v>
       </c>
     </row>
     <row r="76">
@@ -3594,16 +3594,16 @@
         <v>45667</v>
       </c>
       <c r="B76" t="n">
-        <v>37.66932135097063</v>
+        <v>37.66931748959187</v>
       </c>
       <c r="C76" t="n">
-        <v>37.66932135097063</v>
+        <v>37.66931748959187</v>
       </c>
       <c r="D76" t="n">
-        <v>37.00602629613181</v>
+        <v>37.00602250274562</v>
       </c>
       <c r="E76" t="n">
-        <v>37.21392440795898</v>
+        <v>37.21392059326172</v>
       </c>
       <c r="F76" t="n">
         <v>183700</v>
@@ -3618,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.01699792101970798</v>
+        <v>-0.016997922732501</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.0009618221532269322</v>
+        <v>-0.0009620268720295089</v>
       </c>
       <c r="L76" t="n">
         <v>95270</v>
@@ -3630,7 +3630,7 @@
         <v>37.70346412658692</v>
       </c>
       <c r="N76" t="n">
-        <v>38.2393009185791</v>
+        <v>38.23930068969727</v>
       </c>
     </row>
     <row r="77">
@@ -3638,16 +3638,16 @@
         <v>45670</v>
       </c>
       <c r="B77" t="n">
-        <v>37.20402665903653</v>
+        <v>37.20402282802805</v>
       </c>
       <c r="C77" t="n">
-        <v>37.20402665903653</v>
+        <v>37.20402282802805</v>
       </c>
       <c r="D77" t="n">
-        <v>36.68922862948018</v>
+        <v>36.68922485148198</v>
       </c>
       <c r="E77" t="n">
-        <v>37.04562377929688</v>
+        <v>37.04561996459961</v>
       </c>
       <c r="F77" t="n">
         <v>89100</v>
@@ -3662,19 +3662,19 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.004522517615103139</v>
+        <v>-0.004522518078693971</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.005479989910699534</v>
+        <v>-0.005480194166802566</v>
       </c>
       <c r="L77" t="n">
         <v>94355</v>
       </c>
       <c r="M77" t="n">
-        <v>37.64432220458984</v>
+        <v>37.64432201385498</v>
       </c>
       <c r="N77" t="n">
-        <v>38.23314575195312</v>
+        <v>38.23314544677734</v>
       </c>
     </row>
     <row r="78">
@@ -3682,16 +3682,16 @@
         <v>45671</v>
       </c>
       <c r="B78" t="n">
-        <v>37.17431830161348</v>
+        <v>37.17432208307797</v>
       </c>
       <c r="C78" t="n">
-        <v>37.60991859835541</v>
+        <v>37.60992242413026</v>
       </c>
       <c r="D78" t="n">
-        <v>37.17431830161348</v>
+        <v>37.17432208307797</v>
       </c>
       <c r="E78" t="n">
-        <v>37.50101852416992</v>
+        <v>37.50102233886719</v>
       </c>
       <c r="F78" t="n">
         <v>162100</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01229280812184741</v>
+        <v>0.01229301533360094</v>
       </c>
       <c r="K78" t="n">
-        <v>0.006745453746666019</v>
+        <v>0.006745453055874817</v>
       </c>
       <c r="L78" t="n">
         <v>96715</v>
@@ -3718,7 +3718,7 @@
         <v>37.60942478179932</v>
       </c>
       <c r="N78" t="n">
-        <v>38.23747505187988</v>
+        <v>38.23747482299805</v>
       </c>
     </row>
     <row r="79">
@@ -3726,16 +3726,16 @@
         <v>45672</v>
       </c>
       <c r="B79" t="n">
-        <v>38.01581624983284</v>
+        <v>38.01582008149339</v>
       </c>
       <c r="C79" t="n">
-        <v>38.23361262040127</v>
+        <v>38.23361647401378</v>
       </c>
       <c r="D79" t="n">
-        <v>37.81781645942636</v>
+        <v>37.81782027113026</v>
       </c>
       <c r="E79" t="n">
-        <v>37.84751510620117</v>
+        <v>37.84751892089844</v>
       </c>
       <c r="F79" t="n">
         <v>37400</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.009239657899102971</v>
+        <v>0.009239656959221909</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01604743733076242</v>
+        <v>0.01604743568736744</v>
       </c>
       <c r="L79" t="n">
         <v>91895</v>
@@ -3762,7 +3762,7 @@
         <v>37.5935848236084</v>
       </c>
       <c r="N79" t="n">
-        <v>38.24067169189453</v>
+        <v>38.24067153930664</v>
       </c>
     </row>
     <row r="80">
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02458811919448856</v>
+        <v>0.02458801592501136</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04103013282710588</v>
+        <v>0.04103002621661545</v>
       </c>
       <c r="L80" t="n">
         <v>92440</v>
       </c>
       <c r="M80" t="n">
-        <v>37.63466968536377</v>
+        <v>37.63466949462891</v>
       </c>
       <c r="N80" t="n">
-        <v>38.27821220397949</v>
+        <v>38.27821212768555</v>
       </c>
     </row>
     <row r="81">
@@ -3814,16 +3814,16 @@
         <v>45674</v>
       </c>
       <c r="B81" t="n">
-        <v>38.66921716163314</v>
+        <v>38.66921335667703</v>
       </c>
       <c r="C81" t="n">
-        <v>38.93651634155951</v>
+        <v>38.93651251030182</v>
       </c>
       <c r="D81" t="n">
-        <v>38.66921716163314</v>
+        <v>38.66921335667703</v>
       </c>
       <c r="E81" t="n">
-        <v>38.76821517944336</v>
+        <v>38.76821136474609</v>
       </c>
       <c r="F81" t="n">
         <v>68100</v>
@@ -3838,19 +3838,19 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.0002552764511162264</v>
+        <v>-0.0002553748235444298</v>
       </c>
       <c r="K81" t="n">
-        <v>0.04076438234929269</v>
+        <v>0.04076417335736582</v>
       </c>
       <c r="L81" t="n">
         <v>91955</v>
       </c>
       <c r="M81" t="n">
-        <v>37.69060459136963</v>
+        <v>37.6906042098999</v>
       </c>
       <c r="N81" t="n">
-        <v>38.31968437194824</v>
+        <v>38.31968421936035</v>
       </c>
     </row>
     <row r="82">
@@ -3882,19 +3882,19 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0158323620675489</v>
+        <v>0.01583246202297106</v>
       </c>
       <c r="K82" t="n">
-        <v>0.05724214087765556</v>
+        <v>0.05724203260691518</v>
       </c>
       <c r="L82" t="n">
         <v>92455</v>
       </c>
       <c r="M82" t="n">
-        <v>37.82078857421875</v>
+        <v>37.82078838348389</v>
       </c>
       <c r="N82" t="n">
-        <v>38.36025688171387</v>
+        <v>38.36025672912598</v>
       </c>
     </row>
     <row r="83">
@@ -3929,7 +3929,7 @@
         <v>-0.02488677329386968</v>
       </c>
       <c r="K83" t="n">
-        <v>0.03093079540090793</v>
+        <v>0.03093068982467684</v>
       </c>
       <c r="L83" t="n">
         <v>91120</v>
@@ -3938,7 +3938,7 @@
         <v>37.88860321044922</v>
       </c>
       <c r="N83" t="n">
-        <v>38.37847450256348</v>
+        <v>38.37847442626953</v>
       </c>
     </row>
     <row r="84">
@@ -3973,7 +3973,7 @@
         <v>0.002835847464227159</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03385435788283919</v>
+        <v>0.03385425200721004</v>
       </c>
       <c r="L84" t="n">
         <v>89385</v>
@@ -4017,7 +4017,7 @@
         <v>0.004884214363401806</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03890392418727617</v>
+        <v>0.03890381779452778</v>
       </c>
       <c r="L85" t="n">
         <v>99570</v>
@@ -4034,16 +4034,16 @@
         <v>45684</v>
       </c>
       <c r="B86" t="n">
-        <v>38.24351586366721</v>
+        <v>38.24351967737741</v>
       </c>
       <c r="C86" t="n">
-        <v>38.30291315904434</v>
+        <v>38.30291697867773</v>
       </c>
       <c r="D86" t="n">
-        <v>37.50101945919715</v>
+        <v>37.5010231988643</v>
       </c>
       <c r="E86" t="n">
-        <v>38.25341415405273</v>
+        <v>38.25341796875</v>
       </c>
       <c r="F86" t="n">
         <v>59300</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.01151193609897116</v>
+        <v>-0.01151183752521512</v>
       </c>
       <c r="K86" t="n">
-        <v>0.02694412859906192</v>
+        <v>0.02694412583975159</v>
       </c>
       <c r="L86" t="n">
         <v>101225</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.009057825948256548</v>
+        <v>-0.009057924766730951</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01764224742362752</v>
+        <v>0.01764214320825874</v>
       </c>
       <c r="L87" t="n">
         <v>103505</v>
@@ -4122,16 +4122,16 @@
         <v>45686</v>
       </c>
       <c r="B88" t="n">
-        <v>37.92671776507621</v>
+        <v>37.92672159075826</v>
       </c>
       <c r="C88" t="n">
-        <v>38.26331628674251</v>
+        <v>38.26332014637738</v>
       </c>
       <c r="D88" t="n">
-        <v>37.75841661597705</v>
+        <v>37.75842042468251</v>
       </c>
       <c r="E88" t="n">
-        <v>37.81781768798828</v>
+        <v>37.81782150268555</v>
       </c>
       <c r="F88" t="n">
         <v>98900</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.002350591804104907</v>
+        <v>-0.002350491170839852</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01525018589732263</v>
+        <v>0.01525018433557324</v>
       </c>
       <c r="L88" t="n">
         <v>105985</v>
       </c>
       <c r="M88" t="n">
-        <v>38.03462772369384</v>
+        <v>38.03462791442871</v>
       </c>
       <c r="N88" t="n">
         <v>38.39059478759766</v>
@@ -4190,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02225139841637547</v>
+        <v>0.02225129530150904</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0378409222760232</v>
+        <v>0.03784081599213551</v>
       </c>
       <c r="L89" t="n">
         <v>95145</v>
@@ -4237,7 +4237,7 @@
         <v>-0.00384120948366673</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03385435788283919</v>
+        <v>0.03385425200721004</v>
       </c>
       <c r="L90" t="n">
         <v>95165</v>
@@ -4281,7 +4281,7 @@
         <v>0.004113069542701631</v>
       </c>
       <c r="K91" t="n">
-        <v>0.03810667275383639</v>
+        <v>0.03810656644273358</v>
       </c>
       <c r="L91" t="n">
         <v>94215</v>
@@ -4290,7 +4290,7 @@
         <v>38.18857231140137</v>
       </c>
       <c r="N91" t="n">
-        <v>38.41170753479004</v>
+        <v>38.41170761108398</v>
       </c>
     </row>
     <row r="92">
@@ -4325,7 +4325,7 @@
         <v>-0.005632390879147242</v>
       </c>
       <c r="K92" t="n">
-        <v>0.03225965019863586</v>
+        <v>0.03225954448631874</v>
       </c>
       <c r="L92" t="n">
         <v>95440</v>
@@ -4369,7 +4369,7 @@
         <v>0.01235837031816489</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04501669722028989</v>
+        <v>0.04501659020154092</v>
       </c>
       <c r="L93" t="n">
         <v>97850</v>
@@ -4386,16 +4386,16 @@
         <v>45694</v>
       </c>
       <c r="B94" t="n">
-        <v>39.07511105604019</v>
+        <v>39.07511488821383</v>
       </c>
       <c r="C94" t="n">
-        <v>39.07511105604019</v>
+        <v>39.07511488821383</v>
       </c>
       <c r="D94" t="n">
-        <v>38.69891182931637</v>
+        <v>38.69891562459541</v>
       </c>
       <c r="E94" t="n">
-        <v>38.89691162109375</v>
+        <v>38.89691543579102</v>
       </c>
       <c r="F94" t="n">
         <v>55200</v>
@@ -4410,19 +4410,19 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.0007630058392583683</v>
+        <v>-0.0007629078421046431</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04421934337818834</v>
+        <v>0.04421933884974671</v>
       </c>
       <c r="L94" t="n">
         <v>90910</v>
       </c>
       <c r="M94" t="n">
-        <v>38.30489673614502</v>
+        <v>38.30489692687988</v>
       </c>
       <c r="N94" t="n">
-        <v>38.38765037536621</v>
+        <v>38.38765045166016</v>
       </c>
     </row>
     <row r="95">
@@ -4454,19 +4454,19 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.003817746164600844</v>
+        <v>-0.003817843862160664</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04023277898500432</v>
+        <v>0.04023267245616968</v>
       </c>
       <c r="L95" t="n">
         <v>90335</v>
       </c>
       <c r="M95" t="n">
-        <v>38.34944629669189</v>
+        <v>38.34944667816162</v>
       </c>
       <c r="N95" t="n">
-        <v>38.36796203613281</v>
+        <v>38.3679621887207</v>
       </c>
     </row>
     <row r="96">
@@ -4501,16 +4501,16 @@
         <v>0.005109836277317203</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04554819817591649</v>
+        <v>0.04554809110273683</v>
       </c>
       <c r="L96" t="n">
         <v>84015</v>
       </c>
       <c r="M96" t="n">
-        <v>38.43607063293457</v>
+        <v>38.43607120513916</v>
       </c>
       <c r="N96" t="n">
-        <v>38.35026725769043</v>
+        <v>38.35026741027832</v>
       </c>
     </row>
     <row r="97">
@@ -4545,16 +4545,16 @@
         <v>0.006354921187654572</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05219257457321858</v>
+        <v>0.05219246681959744</v>
       </c>
       <c r="L97" t="n">
         <v>82460</v>
       </c>
       <c r="M97" t="n">
-        <v>38.5434850692749</v>
+        <v>38.54348583221436</v>
       </c>
       <c r="N97" t="n">
-        <v>38.32552696228027</v>
+        <v>38.32552711486817</v>
       </c>
     </row>
     <row r="98">
@@ -4589,16 +4589,16 @@
         <v>0.001010370483127687</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05325567889313354</v>
+        <v>0.05325557103064127</v>
       </c>
       <c r="L98" t="n">
         <v>79060</v>
       </c>
       <c r="M98" t="n">
-        <v>38.6301097869873</v>
+        <v>38.6301103591919</v>
       </c>
       <c r="N98" t="n">
-        <v>38.3031517791748</v>
+        <v>38.3031519317627</v>
       </c>
     </row>
     <row r="99">
@@ -4633,16 +4633,16 @@
         <v>0.005046656094461532</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0585710980840457</v>
+        <v>0.05857098967720864</v>
       </c>
       <c r="L99" t="n">
         <v>78755</v>
       </c>
       <c r="M99" t="n">
-        <v>38.70930957794189</v>
+        <v>38.70930995941162</v>
       </c>
       <c r="N99" t="n">
-        <v>38.28414672851562</v>
+        <v>38.28414688110352</v>
       </c>
     </row>
     <row r="100">
@@ -4677,16 +4677,16 @@
         <v>-0.004017129588514079</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05431868080438651</v>
+        <v>0.05431857283303376</v>
       </c>
       <c r="L100" t="n">
         <v>77505</v>
       </c>
       <c r="M100" t="n">
-        <v>38.73405933380127</v>
+        <v>38.73405971527099</v>
       </c>
       <c r="N100" t="n">
-        <v>38.2784920501709</v>
+        <v>38.27849220275879</v>
       </c>
     </row>
     <row r="101">
@@ -4721,16 +4721,16 @@
         <v>0.01134362485078011</v>
       </c>
       <c r="K101" t="n">
-        <v>0.06627847639260076</v>
+        <v>0.06627836719646152</v>
       </c>
       <c r="L101" t="n">
         <v>77535</v>
       </c>
       <c r="M101" t="n">
-        <v>38.78157901763916</v>
+        <v>38.78157958984375</v>
       </c>
       <c r="N101" t="n">
-        <v>38.28528709411621</v>
+        <v>38.2852872467041</v>
       </c>
     </row>
     <row r="102">
@@ -4738,16 +4738,16 @@
         <v>45707</v>
       </c>
       <c r="B102" t="n">
-        <v>39.59980823260351</v>
+        <v>39.59981202172416</v>
       </c>
       <c r="C102" t="n">
-        <v>39.92650846325785</v>
+        <v>39.92651228363893</v>
       </c>
       <c r="D102" t="n">
-        <v>39.59980823260351</v>
+        <v>39.59981202172416</v>
       </c>
       <c r="E102" t="n">
-        <v>39.86710739135742</v>
+        <v>39.86711120605469</v>
       </c>
       <c r="F102" t="n">
         <v>55100</v>
@@ -4762,19 +4762,19 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.003738764761220148</v>
+        <v>0.00373886080429342</v>
       </c>
       <c r="K102" t="n">
-        <v>0.07026504078578499</v>
+        <v>0.07026503359003833</v>
       </c>
       <c r="L102" t="n">
         <v>78035</v>
       </c>
       <c r="M102" t="n">
-        <v>38.80583400726319</v>
+        <v>38.80583477020264</v>
       </c>
       <c r="N102" t="n">
-        <v>38.29446212768555</v>
+        <v>38.29446228027344</v>
       </c>
     </row>
     <row r="103">
@@ -4782,16 +4782,16 @@
         <v>45708</v>
       </c>
       <c r="B103" t="n">
-        <v>39.75820781919619</v>
+        <v>39.75821161875578</v>
       </c>
       <c r="C103" t="n">
-        <v>39.99580833328219</v>
+        <v>39.99581215554847</v>
       </c>
       <c r="D103" t="n">
-        <v>39.52060730511019</v>
+        <v>39.52061108196309</v>
       </c>
       <c r="E103" t="n">
-        <v>39.91660690307617</v>
+        <v>39.91661071777344</v>
       </c>
       <c r="F103" t="n">
         <v>67100</v>
@@ -4806,19 +4806,19 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.001241612822140192</v>
+        <v>0.001241612703336115</v>
       </c>
       <c r="K103" t="n">
-        <v>0.07159389558351292</v>
+        <v>0.07159388825168023</v>
       </c>
       <c r="L103" t="n">
         <v>79230</v>
       </c>
       <c r="M103" t="n">
-        <v>38.88156852722168</v>
+        <v>38.881569480896</v>
       </c>
       <c r="N103" t="n">
-        <v>38.30482376098633</v>
+        <v>38.30482406616211</v>
       </c>
     </row>
     <row r="104">
@@ -4826,16 +4826,16 @@
         <v>45709</v>
       </c>
       <c r="B104" t="n">
-        <v>39.93641054086795</v>
+        <v>39.93640674030282</v>
       </c>
       <c r="C104" t="n">
-        <v>40.16410900661454</v>
+        <v>40.1641051843804</v>
       </c>
       <c r="D104" t="n">
-        <v>39.89680982251227</v>
+        <v>39.89680602571576</v>
       </c>
       <c r="E104" t="n">
-        <v>40.08491134643555</v>
+        <v>40.08490753173828</v>
       </c>
       <c r="F104" t="n">
         <v>107200</v>
@@ -4850,19 +4850,19 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.004216401553569948</v>
+        <v>0.00421621001729755</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0761121657496473</v>
+        <v>0.07611195313780184</v>
       </c>
       <c r="L104" t="n">
         <v>82640</v>
       </c>
       <c r="M104" t="n">
-        <v>38.96027317047119</v>
+        <v>38.96027393341065</v>
       </c>
       <c r="N104" t="n">
-        <v>38.32700744628906</v>
+        <v>38.3270076751709</v>
       </c>
     </row>
     <row r="105">
@@ -4894,19 +4894,19 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.001975824368037449</v>
+        <v>-0.0019757293906425</v>
       </c>
       <c r="K105" t="n">
-        <v>0.07398595710981759</v>
+        <v>0.07398584712436573</v>
       </c>
       <c r="L105" t="n">
         <v>72940</v>
       </c>
       <c r="M105" t="n">
-        <v>39.02561302185059</v>
+        <v>39.02561378479004</v>
       </c>
       <c r="N105" t="n">
-        <v>38.35625961303711</v>
+        <v>38.35625984191895</v>
       </c>
     </row>
     <row r="106">
@@ -4941,16 +4941,16 @@
         <v>0.0009897726354946013</v>
       </c>
       <c r="K106" t="n">
-        <v>0.07504895902107034</v>
+        <v>0.07504884892675801</v>
       </c>
       <c r="L106" t="n">
         <v>84305</v>
       </c>
       <c r="M106" t="n">
-        <v>39.11520767211914</v>
+        <v>39.11520824432373</v>
       </c>
       <c r="N106" t="n">
-        <v>38.3912198638916</v>
+        <v>38.39122016906738</v>
       </c>
     </row>
     <row r="107">
@@ -4985,16 +4985,16 @@
         <v>0.005933240023445308</v>
       </c>
       <c r="K107" t="n">
-        <v>0.08142748253189747</v>
+        <v>0.08142737178436898</v>
       </c>
       <c r="L107" t="n">
         <v>83255</v>
       </c>
       <c r="M107" t="n">
-        <v>39.23400688171387</v>
+        <v>39.23400745391846</v>
       </c>
       <c r="N107" t="n">
-        <v>38.4323087310791</v>
+        <v>38.43230903625489</v>
       </c>
     </row>
     <row r="108">
@@ -5029,16 +5029,16 @@
         <v>-0.01720315737180633</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0628235153637049</v>
+        <v>0.06282340652138352</v>
       </c>
       <c r="L108" t="n">
         <v>85005</v>
       </c>
       <c r="M108" t="n">
-        <v>39.32261161804199</v>
+        <v>39.32261199951172</v>
       </c>
       <c r="N108" t="n">
-        <v>38.4601276397705</v>
+        <v>38.46012794494629</v>
       </c>
     </row>
     <row r="109">
@@ -5073,16 +5073,16 @@
         <v>0.01850455057101108</v>
       </c>
       <c r="K109" t="n">
-        <v>0.08249058685181243</v>
+        <v>0.08249047599541282</v>
       </c>
       <c r="L109" t="n">
         <v>84230</v>
       </c>
       <c r="M109" t="n">
-        <v>39.4057710647583</v>
+        <v>39.40577144622803</v>
       </c>
       <c r="N109" t="n">
-        <v>38.50329147338867</v>
+        <v>38.50329170227051</v>
       </c>
     </row>
     <row r="110">
@@ -5117,16 +5117,16 @@
         <v>0.0009820910526405768</v>
       </c>
       <c r="K110" t="n">
-        <v>0.08355369117172717</v>
+        <v>0.08355358020645665</v>
       </c>
       <c r="L110" t="n">
         <v>87625</v>
       </c>
       <c r="M110" t="n">
-        <v>39.49833545684815</v>
+        <v>39.49833583831787</v>
       </c>
       <c r="N110" t="n">
-        <v>38.55140525817871</v>
+        <v>38.5514054107666</v>
       </c>
     </row>
     <row r="111">
@@ -5161,16 +5161,16 @@
         <v>-0.0191316553825821</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0628235153637049</v>
+        <v>0.06282340652138374</v>
       </c>
       <c r="L111" t="n">
         <v>93030</v>
       </c>
       <c r="M111" t="n">
-        <v>39.54437026977539</v>
+        <v>39.54437065124512</v>
       </c>
       <c r="N111" t="n">
-        <v>38.5902131652832</v>
+        <v>38.5902133178711</v>
       </c>
     </row>
     <row r="112">
@@ -5205,16 +5205,16 @@
         <v>-0.005001224675663329</v>
       </c>
       <c r="K112" t="n">
-        <v>0.05750809617279273</v>
+        <v>0.05750798787481637</v>
       </c>
       <c r="L112" t="n">
         <v>94270</v>
       </c>
       <c r="M112" t="n">
-        <v>39.59139518737793</v>
+        <v>39.59139556884766</v>
       </c>
       <c r="N112" t="n">
-        <v>38.64248489379883</v>
+        <v>38.64248512268066</v>
       </c>
     </row>
     <row r="113">
@@ -5249,16 +5249,16 @@
         <v>-0.01658717103829677</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03996702850719114</v>
+        <v>0.03996692200557184</v>
       </c>
       <c r="L113" t="n">
         <v>93285</v>
       </c>
       <c r="M113" t="n">
-        <v>39.58199024200439</v>
+        <v>39.58199062347412</v>
       </c>
       <c r="N113" t="n">
-        <v>38.67634269714355</v>
+        <v>38.67634300231934</v>
       </c>
     </row>
     <row r="114">
@@ -5266,16 +5266,16 @@
         <v>45723</v>
       </c>
       <c r="B114" t="n">
-        <v>38.71871268014332</v>
+        <v>38.71871645144785</v>
       </c>
       <c r="C114" t="n">
-        <v>39.33250864360562</v>
+        <v>39.33251247469549</v>
       </c>
       <c r="D114" t="n">
-        <v>38.71871268014332</v>
+        <v>38.71871645144785</v>
       </c>
       <c r="E114" t="n">
-        <v>39.16421127319336</v>
+        <v>39.16421508789062</v>
       </c>
       <c r="F114" t="n">
         <v>104800</v>
@@ -5290,19 +5290,19 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0109889947571995</v>
+        <v>0.01098909323018882</v>
       </c>
       <c r="K114" t="n">
-        <v>0.05139522073111702</v>
+        <v>0.05139521546780368</v>
       </c>
       <c r="L114" t="n">
         <v>95765</v>
       </c>
       <c r="M114" t="n">
-        <v>39.59535522460938</v>
+        <v>39.5953556060791</v>
       </c>
       <c r="N114" t="n">
-        <v>38.71039848327636</v>
+        <v>38.7103988647461</v>
       </c>
     </row>
     <row r="115">
@@ -5310,16 +5310,16 @@
         <v>45726</v>
       </c>
       <c r="B115" t="n">
-        <v>39.04541301924542</v>
+        <v>39.04540924568989</v>
       </c>
       <c r="C115" t="n">
-        <v>39.71861012100243</v>
+        <v>39.71860628238557</v>
       </c>
       <c r="D115" t="n">
-        <v>39.02561266018994</v>
+        <v>39.02560888854801</v>
       </c>
       <c r="E115" t="n">
-        <v>39.47111129760742</v>
+        <v>39.47110748291016</v>
       </c>
       <c r="F115" t="n">
         <v>198300</v>
@@ -5334,19 +5334,19 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.007836236564889631</v>
+        <v>0.007836040996374249</v>
       </c>
       <c r="K115" t="n">
-        <v>0.05963420240396045</v>
+        <v>0.05963399147960113</v>
       </c>
       <c r="L115" t="n">
         <v>101645</v>
       </c>
       <c r="M115" t="n">
-        <v>39.63149013519287</v>
+        <v>39.63149032592774</v>
       </c>
       <c r="N115" t="n">
-        <v>38.74821632385254</v>
+        <v>38.74821662902832</v>
       </c>
     </row>
     <row r="116">
@@ -5378,19 +5378,19 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.004013099303525669</v>
+        <v>-0.004013003046066776</v>
       </c>
       <c r="K116" t="n">
-        <v>0.05538178512430103</v>
+        <v>0.05538167704407759</v>
       </c>
       <c r="L116" t="n">
         <v>111835</v>
       </c>
       <c r="M116" t="n">
-        <v>39.64980506896973</v>
+        <v>39.64980525970459</v>
       </c>
       <c r="N116" t="n">
-        <v>38.77811416625977</v>
+        <v>38.7781143951416</v>
       </c>
     </row>
     <row r="117">
@@ -5425,16 +5425,16 @@
         <v>0.0002519020985793929</v>
       </c>
       <c r="K117" t="n">
-        <v>0.05564763801077621</v>
+        <v>0.05564752990332722</v>
       </c>
       <c r="L117" t="n">
         <v>115670</v>
       </c>
       <c r="M117" t="n">
-        <v>39.65624008178711</v>
+        <v>39.65624027252197</v>
       </c>
       <c r="N117" t="n">
-        <v>38.80880409240723</v>
+        <v>38.80880432128906</v>
       </c>
     </row>
     <row r="118">
@@ -5469,16 +5469,16 @@
         <v>0.002517610516767022</v>
       </c>
       <c r="K118" t="n">
-        <v>0.05830534760623252</v>
+        <v>0.05830523922661102</v>
       </c>
       <c r="L118" t="n">
         <v>130060</v>
       </c>
       <c r="M118" t="n">
-        <v>39.66564502716064</v>
+        <v>39.66564521789551</v>
       </c>
       <c r="N118" t="n">
-        <v>38.84483993530274</v>
+        <v>38.84484016418457</v>
       </c>
     </row>
     <row r="119">
@@ -5513,16 +5513,16 @@
         <v>0.01908596352342462</v>
       </c>
       <c r="K119" t="n">
-        <v>0.07850412486729019</v>
+        <v>0.07850401441913935</v>
       </c>
       <c r="L119" t="n">
         <v>139565</v>
       </c>
       <c r="M119" t="n">
-        <v>39.70277004241943</v>
+        <v>39.7027702331543</v>
       </c>
       <c r="N119" t="n">
-        <v>38.89730979919434</v>
+        <v>38.89730995178223</v>
       </c>
     </row>
     <row r="120">
@@ -5557,16 +5557,16 @@
         <v>0.007639077742547684</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08674290172280985</v>
+        <v>0.08674279043093702</v>
       </c>
       <c r="L120" t="n">
         <v>144185</v>
       </c>
       <c r="M120" t="n">
-        <v>39.76315975189209</v>
+        <v>39.76315994262696</v>
       </c>
       <c r="N120" t="n">
-        <v>38.95789741516113</v>
+        <v>38.95789756774902</v>
       </c>
     </row>
     <row r="121">
@@ -5574,16 +5574,16 @@
         <v>45734</v>
       </c>
       <c r="B121" t="n">
-        <v>40.29280903526836</v>
+        <v>40.29280522525163</v>
       </c>
       <c r="C121" t="n">
-        <v>40.37200669462626</v>
+        <v>40.37200287712075</v>
       </c>
       <c r="D121" t="n">
-        <v>40.06511057188243</v>
+        <v>40.06510678339647</v>
       </c>
       <c r="E121" t="n">
-        <v>40.34230804443359</v>
+        <v>40.34230422973633</v>
       </c>
       <c r="F121" t="n">
         <v>308400</v>
@@ -5598,10 +5598,10 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.003423727452749437</v>
+        <v>-0.003423821687238315</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0830221902161008</v>
+        <v>0.08302197689660962</v>
       </c>
       <c r="L121" t="n">
         <v>156170</v>
@@ -5610,7 +5610,7 @@
         <v>39.79434471130371</v>
       </c>
       <c r="N121" t="n">
-        <v>39.0095751953125</v>
+        <v>39.00957527160644</v>
       </c>
     </row>
     <row r="122">
@@ -5618,16 +5618,16 @@
         <v>45735</v>
       </c>
       <c r="B122" t="n">
-        <v>40.31260675582806</v>
+        <v>40.31261055002646</v>
       </c>
       <c r="C122" t="n">
-        <v>40.60960456791362</v>
+        <v>40.60960839006528</v>
       </c>
       <c r="D122" t="n">
-        <v>40.27300604047476</v>
+        <v>40.27300983094597</v>
       </c>
       <c r="E122" t="n">
-        <v>40.53040313720703</v>
+        <v>40.5304069519043</v>
       </c>
       <c r="F122" t="n">
         <v>86100</v>
@@ -5642,10 +5642,10 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.004662477232741935</v>
+        <v>0.004662666790096637</v>
       </c>
       <c r="K122" t="n">
-        <v>0.08807175652053778</v>
+        <v>0.08807174750123026</v>
       </c>
       <c r="L122" t="n">
         <v>157720</v>
@@ -5654,7 +5654,7 @@
         <v>39.82750949859619</v>
       </c>
       <c r="N122" t="n">
-        <v>39.05471893310547</v>
+        <v>39.05471908569336</v>
       </c>
     </row>
     <row r="123">
@@ -5662,16 +5662,16 @@
         <v>45736</v>
       </c>
       <c r="B123" t="n">
-        <v>40.50070274540112</v>
+        <v>40.50070653877174</v>
       </c>
       <c r="C123" t="n">
-        <v>40.74820154090627</v>
+        <v>40.74820535745808</v>
       </c>
       <c r="D123" t="n">
-        <v>40.47100409843072</v>
+        <v>40.4710078890197</v>
       </c>
       <c r="E123" t="n">
-        <v>40.72840118408203</v>
+        <v>40.7284049987793</v>
       </c>
       <c r="F123" t="n">
         <v>149300</v>
@@ -5686,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.004885173389584052</v>
+        <v>0.004885172929794512</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09338717571144994</v>
+        <v>0.09338716614779741</v>
       </c>
       <c r="L123" t="n">
         <v>161830</v>
@@ -5698,7 +5698,7 @@
         <v>39.86809921264648</v>
       </c>
       <c r="N123" t="n">
-        <v>39.11332656860352</v>
+        <v>39.11332679748535</v>
       </c>
     </row>
     <row r="124">
@@ -5730,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.00875054534610209</v>
+        <v>-0.008750638188347759</v>
       </c>
       <c r="K124" t="n">
-        <v>0.08381944164954036</v>
+        <v>0.08381933065705516</v>
       </c>
       <c r="L124" t="n">
         <v>159780</v>
       </c>
       <c r="M124" t="n">
-        <v>39.88245391845703</v>
+        <v>39.8824541091919</v>
       </c>
       <c r="N124" t="n">
-        <v>39.16322235107422</v>
+        <v>39.16322257995606</v>
       </c>
     </row>
     <row r="125">
@@ -5777,16 +5777,16 @@
         <v>0.0004904907070861775</v>
       </c>
       <c r="K125" t="n">
-        <v>0.08435104501382873</v>
+        <v>0.08435093396690285</v>
       </c>
       <c r="L125" t="n">
         <v>162015</v>
       </c>
       <c r="M125" t="n">
-        <v>39.90175876617432</v>
+        <v>39.90175895690918</v>
       </c>
       <c r="N125" t="n">
-        <v>39.21391006469727</v>
+        <v>39.21391036987305</v>
       </c>
     </row>
     <row r="126">
@@ -5821,16 +5821,16 @@
         <v>-0.01250001180529392</v>
       </c>
       <c r="K126" t="n">
-        <v>0.07079664415007314</v>
+        <v>0.07079653449123513</v>
       </c>
       <c r="L126" t="n">
         <v>151420</v>
       </c>
       <c r="M126" t="n">
-        <v>39.89383888244629</v>
+        <v>39.89383907318116</v>
       </c>
       <c r="N126" t="n">
-        <v>39.26736976623535</v>
+        <v>39.26737014770508</v>
       </c>
     </row>
     <row r="127">
@@ -5838,16 +5838,16 @@
         <v>45742</v>
       </c>
       <c r="B127" t="n">
-        <v>39.86711117201169</v>
+        <v>39.86710737804147</v>
       </c>
       <c r="C127" t="n">
-        <v>40.23340837547079</v>
+        <v>40.23340454664174</v>
       </c>
       <c r="D127" t="n">
-        <v>39.83741252151111</v>
+        <v>39.83740873036718</v>
       </c>
       <c r="E127" t="n">
-        <v>40.08491134643555</v>
+        <v>40.08490753173828</v>
       </c>
       <c r="F127" t="n">
         <v>3417900</v>
@@ -5862,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.004964081302097467</v>
+        <v>0.004963985664272696</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0761121657496473</v>
+        <v>0.0761119531378025</v>
       </c>
       <c r="L127" t="n">
         <v>318900</v>
@@ -5874,7 +5874,7 @@
         <v>39.8839391708374</v>
       </c>
       <c r="N127" t="n">
-        <v>39.32815551757812</v>
+        <v>39.32815589904785</v>
       </c>
     </row>
     <row r="128">
@@ -5906,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>-0.000223543562302253</v>
+        <v>-0.0002234484181508067</v>
       </c>
       <c r="K128" t="n">
-        <v>0.07587160780267888</v>
+        <v>0.0758714976241206</v>
       </c>
       <c r="L128" t="n">
         <v>369645</v>
@@ -5918,7 +5918,7 @@
         <v>39.90824108123779</v>
       </c>
       <c r="N128" t="n">
-        <v>39.3796541595459</v>
+        <v>39.37965446472168</v>
       </c>
     </row>
     <row r="129">
@@ -5953,7 +5953,7 @@
         <v>0.01142287926424501</v>
       </c>
       <c r="K129" t="n">
-        <v>0.08816115928243806</v>
+        <v>0.08816104784532341</v>
       </c>
       <c r="L129" t="n">
         <v>2229455</v>
@@ -5962,7 +5962,7 @@
         <v>39.91880245208741</v>
       </c>
       <c r="N129" t="n">
-        <v>39.43337852478027</v>
+        <v>39.43337875366211</v>
       </c>
     </row>
     <row r="130">
@@ -5997,7 +5997,7 @@
         <v>0.006874575026998286</v>
       </c>
       <c r="K130" t="n">
-        <v>0.09564180481339069</v>
+        <v>0.09564169261019306</v>
       </c>
       <c r="L130" t="n">
         <v>2316975</v>
@@ -6006,7 +6006,7 @@
         <v>39.94131641387939</v>
       </c>
       <c r="N130" t="n">
-        <v>39.47406394958496</v>
+        <v>39.4740641784668</v>
       </c>
     </row>
     <row r="131">
@@ -6041,7 +6041,7 @@
         <v>0.004633076735707231</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1007179973699399</v>
+        <v>0.1007178846468963</v>
       </c>
       <c r="L131" t="n">
         <v>2351500</v>
@@ -6050,7 +6050,7 @@
         <v>40.01189441680908</v>
       </c>
       <c r="N131" t="n">
-        <v>39.51872909545899</v>
+        <v>39.51872940063477</v>
       </c>
     </row>
     <row r="132">
@@ -6085,7 +6085,7 @@
         <v>0.005096996824611066</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1063283535073267</v>
+        <v>0.1063282402097341</v>
       </c>
       <c r="L132" t="n">
         <v>2377905</v>
@@ -6094,7 +6094,7 @@
         <v>40.10282154083252</v>
       </c>
       <c r="N132" t="n">
-        <v>39.55529808044434</v>
+        <v>39.55529838562012</v>
       </c>
     </row>
     <row r="133">
@@ -6129,7 +6129,7 @@
         <v>-0.006761593968531598</v>
       </c>
       <c r="K133" t="n">
-        <v>0.09884781038503609</v>
+        <v>0.09884769785351577</v>
       </c>
       <c r="L133" t="n">
         <v>2409235</v>
@@ -6138,7 +6138,7 @@
         <v>40.21248626708984</v>
       </c>
       <c r="N133" t="n">
-        <v>39.60589591979981</v>
+        <v>39.60589622497559</v>
       </c>
     </row>
     <row r="134">
@@ -6173,16 +6173,16 @@
         <v>-0.0573790674171587</v>
       </c>
       <c r="K134" t="n">
-        <v>0.03579694779175591</v>
+        <v>0.03579684171718922</v>
       </c>
       <c r="L134" t="n">
         <v>2440820</v>
       </c>
       <c r="M134" t="n">
-        <v>40.18343467712403</v>
+        <v>40.18343448638916</v>
       </c>
       <c r="N134" t="n">
-        <v>39.60734313964844</v>
+        <v>39.60734344482422</v>
       </c>
     </row>
     <row r="135">
@@ -6217,7 +6217,7 @@
         <v>-0.01341243020188443</v>
       </c>
       <c r="K135" t="n">
-        <v>0.02190439352617402</v>
+        <v>0.02190428887432505</v>
       </c>
       <c r="L135" t="n">
         <v>2459585</v>
@@ -6226,7 +6226,7 @@
         <v>40.11316337585449</v>
       </c>
       <c r="N135" t="n">
-        <v>39.5946785736084</v>
+        <v>39.59467887878418</v>
       </c>
     </row>
     <row r="136">
@@ -6261,7 +6261,7 @@
         <v>-0.01019602671332343</v>
       </c>
       <c r="K136" t="n">
-        <v>0.01148502903131865</v>
+        <v>0.01148492544650259</v>
       </c>
       <c r="L136" t="n">
         <v>2498795</v>
@@ -6270,7 +6270,7 @@
         <v>40.03140621185302</v>
       </c>
       <c r="N136" t="n">
-        <v>39.58316162109375</v>
+        <v>39.58316184997559</v>
       </c>
     </row>
     <row r="137">
@@ -6305,7 +6305,7 @@
         <v>0.03988367661751391</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05182677083266052</v>
+        <v>0.05182666311650097</v>
       </c>
       <c r="L137" t="n">
         <v>2517020</v>
@@ -6314,7 +6314,7 @@
         <v>40.024289894104</v>
       </c>
       <c r="N137" t="n">
-        <v>39.60862892150879</v>
+        <v>39.60862915039063</v>
       </c>
     </row>
     <row r="138">
@@ -6349,7 +6349,7 @@
         <v>-0.006603915128182369</v>
       </c>
       <c r="K138" t="n">
-        <v>0.04488059610853146</v>
+        <v>0.04488048910372022</v>
       </c>
       <c r="L138" t="n">
         <v>2519075</v>
@@ -6358,7 +6358,7 @@
         <v>39.99928646087646</v>
       </c>
       <c r="N138" t="n">
-        <v>39.63070343017578</v>
+        <v>39.63070358276367</v>
       </c>
     </row>
     <row r="139">
@@ -6393,7 +6393,7 @@
         <v>0.01304012163422907</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05850596617503245</v>
+        <v>0.05850585777486561</v>
       </c>
       <c r="L139" t="n">
         <v>2821940</v>
@@ -6402,7 +6402,7 @@
         <v>39.96204013824463</v>
       </c>
       <c r="N139" t="n">
-        <v>39.64609878540039</v>
+        <v>39.64609893798828</v>
       </c>
     </row>
     <row r="140">
@@ -6437,7 +6437,7 @@
         <v>0.0186774544900794</v>
       </c>
       <c r="K140" t="n">
-        <v>0.07827616318574404</v>
+        <v>0.07827605276093808</v>
       </c>
       <c r="L140" t="n">
         <v>2829395</v>
@@ -6446,7 +6446,7 @@
         <v>39.94627094268799</v>
       </c>
       <c r="N140" t="n">
-        <v>39.67919281005859</v>
+        <v>39.67919296264648</v>
       </c>
     </row>
     <row r="141">
@@ -6481,16 +6481,16 @@
         <v>0.001486539749172566</v>
       </c>
       <c r="K141" t="n">
-        <v>0.07987906356290497</v>
+        <v>0.07987895297394809</v>
       </c>
       <c r="L141" t="n">
         <v>2897080</v>
       </c>
       <c r="M141" t="n">
-        <v>39.94041690826416</v>
+        <v>39.94041709899902</v>
       </c>
       <c r="N141" t="n">
-        <v>39.71031303405762</v>
+        <v>39.71031318664551</v>
       </c>
     </row>
     <row r="142">
@@ -6525,7 +6525,7 @@
         <v>-0.006185037898293388</v>
       </c>
       <c r="K142" t="n">
-        <v>0.07319997062919481</v>
+        <v>0.07319986072423479</v>
       </c>
       <c r="L142" t="n">
         <v>2913295</v>
@@ -6534,7 +6534,7 @@
         <v>39.91271839141846</v>
       </c>
       <c r="N142" t="n">
-        <v>39.74081336975097</v>
+        <v>39.74081352233887</v>
       </c>
     </row>
     <row r="143">
@@ -6569,16 +6569,16 @@
         <v>0.01120235520844237</v>
       </c>
       <c r="K143" t="n">
-        <v>0.08522233790987288</v>
+        <v>0.0852222267737186</v>
       </c>
       <c r="L143" t="n">
         <v>2944885</v>
       </c>
       <c r="M143" t="n">
-        <v>39.89751148223877</v>
+        <v>39.8975112915039</v>
       </c>
       <c r="N143" t="n">
-        <v>39.77076637268066</v>
+        <v>39.77076652526856</v>
       </c>
     </row>
     <row r="144">
@@ -6613,16 +6613,16 @@
         <v>-0.02535694610293615</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05770441357778977</v>
+        <v>0.05770430525970904</v>
       </c>
       <c r="L144" t="n">
         <v>2957180</v>
       </c>
       <c r="M144" t="n">
-        <v>39.84887256622314</v>
+        <v>39.84887237548828</v>
       </c>
       <c r="N144" t="n">
-        <v>39.78081268310547</v>
+        <v>39.78081275939942</v>
       </c>
     </row>
     <row r="145">
@@ -6657,16 +6657,16 @@
         <v>0.02702707936304161</v>
       </c>
       <c r="K145" t="n">
-        <v>0.08629107470619601</v>
+        <v>0.08629096346059395</v>
       </c>
       <c r="L145" t="n">
         <v>2994340</v>
       </c>
       <c r="M145" t="n">
-        <v>39.85248584747315</v>
+        <v>39.85248565673828</v>
       </c>
       <c r="N145" t="n">
-        <v>39.81512588500976</v>
+        <v>39.81512596130371</v>
       </c>
     </row>
     <row r="146">
@@ -6701,16 +6701,16 @@
         <v>0.003197292007269592</v>
       </c>
       <c r="K146" t="n">
-        <v>0.08976426447692254</v>
+        <v>0.08976415287563566</v>
       </c>
       <c r="L146" t="n">
         <v>3001565</v>
       </c>
       <c r="M146" t="n">
-        <v>39.88781280517578</v>
+        <v>39.88781261444092</v>
       </c>
       <c r="N146" t="n">
-        <v>39.84806663513184</v>
+        <v>39.84806671142578</v>
       </c>
     </row>
     <row r="147">
@@ -6745,7 +6745,7 @@
         <v>0.003922442394178383</v>
       </c>
       <c r="K147" t="n">
-        <v>0.09403880202756754</v>
+        <v>0.09403868998853104</v>
       </c>
       <c r="L147" t="n">
         <v>2837620</v>
@@ -6754,7 +6754,7 @@
         <v>39.92120094299317</v>
       </c>
       <c r="N147" t="n">
-        <v>39.87924186706543</v>
+        <v>39.87924194335938</v>
       </c>
     </row>
     <row r="148">
@@ -6789,7 +6789,7 @@
         <v>-0.00244199489865693</v>
       </c>
       <c r="K148" t="n">
-        <v>0.09136716485408347</v>
+        <v>0.09136705308864568</v>
       </c>
       <c r="L148" t="n">
         <v>2795935</v>
@@ -6798,7 +6798,7 @@
         <v>39.95006122589111</v>
       </c>
       <c r="N148" t="n">
-        <v>39.90763473510742</v>
+        <v>39.90763481140137</v>
       </c>
     </row>
     <row r="149">
@@ -6833,7 +6833,7 @@
         <v>0.007833550608751239</v>
       </c>
       <c r="K149" t="n">
-        <v>0.09991644477269723</v>
+        <v>0.09991633213173934</v>
       </c>
       <c r="L149" t="n">
         <v>948300</v>
@@ -6842,7 +6842,7 @@
         <v>39.97195529937744</v>
       </c>
       <c r="N149" t="n">
-        <v>39.93843681335449</v>
+        <v>39.93843688964844</v>
       </c>
     </row>
     <row r="150">
@@ -6877,7 +6877,7 @@
         <v>0.005829450741555497</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1063283535073265</v>
+        <v>0.1063282402097336</v>
       </c>
       <c r="L150" t="n">
         <v>867650</v>
@@ -6886,7 +6886,7 @@
         <v>39.99185886383056</v>
       </c>
       <c r="N150" t="n">
-        <v>39.97718376159668</v>
+        <v>39.97718383789063</v>
       </c>
     </row>
     <row r="151">
@@ -6921,7 +6921,7 @@
         <v>-0.006037170531276614</v>
       </c>
       <c r="K151" t="n">
-        <v>0.09964926057361634</v>
+        <v>0.09964914796002033</v>
       </c>
       <c r="L151" t="n">
         <v>836130</v>
@@ -6930,7 +6930,7 @@
         <v>39.98986835479737</v>
       </c>
       <c r="N151" t="n">
-        <v>40.00204483032226</v>
+        <v>40.00204490661621</v>
       </c>
     </row>
     <row r="152">
@@ -6965,7 +6965,7 @@
         <v>0.001700712265225501</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1015194475585199</v>
+        <v>0.1015193347534007</v>
       </c>
       <c r="L152" t="n">
         <v>815970</v>
@@ -7009,7 +7009,7 @@
         <v>0.007276232424417994</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1095343590789721</v>
+        <v>0.1095342454530568</v>
       </c>
       <c r="L153" t="n">
         <v>786810</v>
@@ -7018,7 +7018,7 @@
         <v>40.00081539154053</v>
       </c>
       <c r="N153" t="n">
-        <v>40.05359466552734</v>
+        <v>40.0535945892334</v>
       </c>
     </row>
     <row r="154">
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1095343590789721</v>
+        <v>0.1095342454530568</v>
       </c>
       <c r="L154" t="n">
         <v>758865</v>
@@ -7097,7 +7097,7 @@
         <v>0.005779010889409353</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1159463702222634</v>
+        <v>0.1159462559397026</v>
       </c>
       <c r="L155" t="n">
         <v>760155</v>
@@ -7141,7 +7141,7 @@
         <v>0.003590990981731546</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1199537235738275</v>
+        <v>0.1199536088808792</v>
       </c>
       <c r="L156" t="n">
         <v>713340</v>
@@ -7185,7 +7185,7 @@
         <v>-0.005009544973113456</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1143432650277785</v>
+        <v>0.1143431509093897</v>
       </c>
       <c r="L157" t="n">
         <v>719800</v>
@@ -7229,7 +7229,7 @@
         <v>0.0002398602083677481</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1146105516355211</v>
+        <v>0.1146104374897601</v>
       </c>
       <c r="L158" t="n">
         <v>714670</v>
@@ -7273,7 +7273,7 @@
         <v>0.002396832472922439</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1172820864003432</v>
+        <v>0.1172819719809939</v>
       </c>
       <c r="L159" t="n">
         <v>411900</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1172820864003432</v>
+        <v>0.1172819719809939</v>
       </c>
       <c r="L160" t="n">
         <v>421260</v>
@@ -7361,7 +7361,7 @@
         <v>-0.004304110848406983</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1124731804515366</v>
+        <v>0.1124730665246609</v>
       </c>
       <c r="L161" t="n">
         <v>351775</v>
@@ -7405,7 +7405,7 @@
         <v>0.02089334357107098</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1357164648243125</v>
+        <v>0.1357163485171236</v>
       </c>
       <c r="L162" t="n">
         <v>344140</v>
@@ -7449,7 +7449,7 @@
         <v>0.01364386053327293</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1512120218757171</v>
+        <v>0.1512119039816491</v>
       </c>
       <c r="L163" t="n">
         <v>319645</v>
@@ -7493,7 +7493,7 @@
         <v>0.004641522720483682</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1565553986313473</v>
+        <v>0.1565552801900711</v>
       </c>
       <c r="L164" t="n">
         <v>330290</v>
@@ -7502,7 +7502,7 @@
         <v>41.4279052734375</v>
       </c>
       <c r="N164" t="n">
-        <v>40.51383270263672</v>
+        <v>40.51383262634278</v>
       </c>
     </row>
     <row r="165">
@@ -7537,7 +7537,7 @@
         <v>-0.0002311057542587758</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1562881120236046</v>
+        <v>0.1562879936097008</v>
       </c>
       <c r="L165" t="n">
         <v>294265</v>
@@ -7581,7 +7581,7 @@
         <v>-0.0201016374129267</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1330448276508285</v>
+        <v>0.1330447116172382</v>
       </c>
       <c r="L166" t="n">
         <v>320920</v>
@@ -7625,7 +7625,7 @@
         <v>-0.01061067222344991</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1210224603701502</v>
+        <v>0.1210223455677544</v>
       </c>
       <c r="L167" t="n">
         <v>322410</v>
@@ -7669,7 +7669,7 @@
         <v>0.01239275282762375</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1349150146357321</v>
+        <v>0.1349148984106185</v>
       </c>
       <c r="L168" t="n">
         <v>316795</v>
@@ -7713,7 +7713,7 @@
         <v>0.008003723442701061</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1439985605438454</v>
+        <v>0.1439984433884982</v>
       </c>
       <c r="L169" t="n">
         <v>304935</v>
@@ -7757,7 +7757,7 @@
         <v>-0.01471275945499906</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1271671849056986</v>
+        <v>0.1271670694740299</v>
       </c>
       <c r="L170" t="n">
         <v>298535</v>
@@ -7801,7 +7801,7 @@
         <v>0.005925556583932012</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1338462778394087</v>
+        <v>0.133846161723743</v>
       </c>
       <c r="L171" t="n">
         <v>293245</v>
@@ -7810,7 +7810,7 @@
         <v>41.95485343933105</v>
       </c>
       <c r="N171" t="n">
-        <v>40.86624832153321</v>
+        <v>40.86624839782715</v>
       </c>
     </row>
     <row r="172">
@@ -7845,7 +7845,7 @@
         <v>0.007068871756043649</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1418612917685229</v>
+        <v>0.1418611748320504</v>
       </c>
       <c r="L172" t="n">
         <v>286245</v>
@@ -7889,7 +7889,7 @@
         <v>0.00233972128904214</v>
       </c>
       <c r="K173" t="n">
-        <v>0.144532928942007</v>
+        <v>0.1445328117319356</v>
       </c>
       <c r="L173" t="n">
         <v>286075</v>
@@ -7898,7 +7898,7 @@
         <v>42.09517402648926</v>
       </c>
       <c r="N173" t="n">
-        <v>40.94442459106445</v>
+        <v>40.94442451477051</v>
       </c>
     </row>
     <row r="174">
@@ -7933,7 +7933,7 @@
         <v>0.001867372026856495</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1466701977173295</v>
+        <v>0.1466700802883831</v>
       </c>
       <c r="L174" t="n">
         <v>306810</v>
@@ -7942,7 +7942,7 @@
         <v>42.16433906555176</v>
       </c>
       <c r="N174" t="n">
-        <v>40.99124809265137</v>
+        <v>40.99124801635742</v>
       </c>
     </row>
     <row r="175">
@@ -7977,7 +7977,7 @@
         <v>-0.01747440654660837</v>
       </c>
       <c r="K175" t="n">
-        <v>0.126632816507537</v>
+        <v>0.1266327011305919</v>
       </c>
       <c r="L175" t="n">
         <v>287315</v>
@@ -7986,7 +7986,7 @@
         <v>42.18424243927002</v>
       </c>
       <c r="N175" t="n">
-        <v>41.02274780273437</v>
+        <v>41.02274772644043</v>
       </c>
     </row>
     <row r="176">
@@ -8021,7 +8021,7 @@
         <v>-0.001185582523879125</v>
       </c>
       <c r="K176" t="n">
-        <v>0.125297100329457</v>
+        <v>0.1252969850893006</v>
       </c>
       <c r="L176" t="n">
         <v>289130</v>
@@ -8030,7 +8030,7 @@
         <v>42.19419441223145</v>
       </c>
       <c r="N176" t="n">
-        <v>41.06335037231445</v>
+        <v>41.06335029602051</v>
       </c>
     </row>
     <row r="177">
@@ -8065,7 +8065,7 @@
         <v>0.003086373688377719</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1287701876915215</v>
+        <v>0.128770072095691</v>
       </c>
       <c r="L177" t="n">
         <v>268220</v>
@@ -8109,7 +8109,7 @@
         <v>-0.0075738866982622</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1202210101815697</v>
+        <v>0.1202208954612489</v>
       </c>
       <c r="L178" t="n">
         <v>276230</v>
@@ -8153,7 +8153,7 @@
         <v>0.003577379574033035</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1242284659417958</v>
+        <v>0.1242283508110771</v>
       </c>
       <c r="L179" t="n">
         <v>270975</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1242284659417958</v>
+        <v>0.1242283508110771</v>
       </c>
       <c r="L180" t="n">
         <v>258125</v>
@@ -8241,7 +8241,7 @@
         <v>0.01140686280984515</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1370523858197166</v>
+        <v>0.1370522693757175</v>
       </c>
       <c r="L181" t="n">
         <v>251630</v>
@@ -8285,7 +8285,7 @@
         <v>-0.009398556509684464</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1263657347171183</v>
+        <v>0.1263656193675249</v>
       </c>
       <c r="L182" t="n">
         <v>245960</v>
@@ -8329,7 +8329,7 @@
         <v>-0.003557954619326731</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1223581765482302</v>
+        <v>0.1223580616090454</v>
       </c>
       <c r="L183" t="n">
         <v>239305</v>
@@ -8373,7 +8373,7 @@
         <v>-0.006902987900473057</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1146105516355207</v>
+        <v>0.1146104374897599</v>
       </c>
       <c r="L184" t="n">
         <v>223615</v>
@@ -8417,7 +8417,7 @@
         <v>0.003835097337840931</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1188851915948275</v>
+        <v>0.1188850770113066</v>
       </c>
       <c r="L185" t="n">
         <v>230510</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1188851915948275</v>
+        <v>0.1188850770113066</v>
       </c>
       <c r="L186" t="n">
         <v>203420</v>
@@ -8505,7 +8505,7 @@
         <v>0.0107449516456124</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1309075588755058</v>
+        <v>0.1309074430607904</v>
       </c>
       <c r="L187" t="n">
         <v>204450</v>
@@ -8549,7 +8549,7 @@
         <v>0.005197189010136105</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1367850992119735</v>
+        <v>0.1367849827953471</v>
       </c>
       <c r="L188" t="n">
         <v>201300</v>
@@ -8593,7 +8593,7 @@
         <v>-0.0148061191599137</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1199537235738266</v>
+        <v>0.1199536088808788</v>
       </c>
       <c r="L189" t="n">
         <v>205660</v>
@@ -8637,7 +8637,7 @@
         <v>0.01083464405072987</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1320880235220385</v>
+        <v>0.1320879075864334</v>
       </c>
       <c r="L190" t="n">
         <v>211870</v>
@@ -8681,7 +8681,7 @@
         <v>0.0004742816844227615</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1326249521367493</v>
+        <v>0.1326248361461582</v>
       </c>
       <c r="L191" t="n">
         <v>219795</v>
@@ -8725,7 +8725,7 @@
         <v>0.0045034948469036</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1377257227721715</v>
+        <v>0.1377256062592174</v>
       </c>
       <c r="L192" t="n">
         <v>233850</v>
@@ -8769,7 +8769,7 @@
         <v>-0.000707942266115591</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1369202786457742</v>
+        <v>0.1369201622153045</v>
       </c>
       <c r="L193" t="n">
         <v>242690</v>
@@ -8813,7 +8813,7 @@
         <v>-0.004958656246492721</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1312826818043031</v>
+        <v>0.131282565951172</v>
       </c>
       <c r="L194" t="n">
         <v>242950</v>
@@ -8857,7 +8857,7 @@
         <v>0.007356463639796917</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1396049217193285</v>
+        <v>0.139604805013928</v>
       </c>
       <c r="L195" t="n">
         <v>239530</v>
@@ -8901,7 +8901,7 @@
         <v>-0.001884613182964512</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1374572072604849</v>
+        <v>0.137457090775029</v>
       </c>
       <c r="L196" t="n">
         <v>242370</v>
@@ -8945,7 +8945,7 @@
         <v>-0.00944058818185689</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1267189421922537</v>
+        <v>0.1267188268064889</v>
       </c>
       <c r="L197" t="n">
         <v>239970</v>
@@ -8989,7 +8989,7 @@
         <v>0.01286626364365473</v>
       </c>
       <c r="K198" t="n">
-        <v>0.141215605154799</v>
+        <v>0.1412154882844505</v>
       </c>
       <c r="L198" t="n">
         <v>243525</v>
@@ -9033,7 +9033,7 @@
         <v>0.005175281801685916</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1471217175079567</v>
+        <v>0.1471216000327711</v>
       </c>
       <c r="L199" t="n">
         <v>255250</v>
@@ -9077,7 +9077,7 @@
         <v>-0.001872174519411129</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1449741054577751</v>
+        <v>0.1449739882025236</v>
       </c>
       <c r="L200" t="n">
         <v>255060</v>
@@ -9121,7 +9121,7 @@
         <v>0.002579057250151617</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1479270592256918</v>
+        <v>0.1479269416680324</v>
       </c>
       <c r="L201" t="n">
         <v>256685</v>
@@ -9165,7 +9165,7 @@
         <v>-0.007717446896887248</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1390679931046177</v>
+        <v>0.1390678764542033</v>
       </c>
       <c r="L202" t="n">
         <v>299915</v>
@@ -9209,7 +9209,7 @@
         <v>0.002828162409184154</v>
       </c>
       <c r="K203" t="n">
-        <v>0.142289462384221</v>
+        <v>0.1422893454039003</v>
       </c>
       <c r="L203" t="n">
         <v>301825</v>
@@ -9253,7 +9253,7 @@
         <v>0.00470037054114103</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1476586461226677</v>
+        <v>0.1476585285924961</v>
       </c>
       <c r="L204" t="n">
         <v>299000</v>
@@ -9297,7 +9297,7 @@
         <v>0.0145028989914564</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1643030235440563</v>
+        <v>0.1643029043093565</v>
       </c>
       <c r="L205" t="n">
         <v>297020</v>
@@ -9341,7 +9341,7 @@
         <v>0.004380964862476855</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1694037941794784</v>
+        <v>0.1694036744224154</v>
       </c>
       <c r="L206" t="n">
         <v>294365</v>
@@ -9385,7 +9385,7 @@
         <v>0.01285577458537723</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1844373857567345</v>
+        <v>0.1844372644601018</v>
       </c>
       <c r="L207" t="n">
         <v>292730</v>
@@ -9429,7 +9429,7 @@
         <v>-0.001359872167866039</v>
       </c>
       <c r="K208" t="n">
-        <v>0.182826702321264</v>
+        <v>0.1828265811895791</v>
       </c>
       <c r="L208" t="n">
         <v>299195</v>
@@ -9473,7 +9473,7 @@
         <v>-0.002950546165757517</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1793367175299743</v>
+        <v>0.1793365967556941</v>
       </c>
       <c r="L209" t="n">
         <v>296475</v>
@@ -9517,7 +9517,7 @@
         <v>0.001821033822027918</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1814843295801558</v>
+        <v>0.1814842085859416</v>
       </c>
       <c r="L210" t="n">
         <v>296890</v>
@@ -9561,7 +9561,7 @@
         <v>-0.01113378510468577</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1683299369500566</v>
+        <v>0.1683298173029659</v>
       </c>
       <c r="L211" t="n">
         <v>289680</v>
@@ -9605,7 +9605,7 @@
         <v>0.0105698317930647</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1806789878624206</v>
+        <v>0.1806788669506803</v>
       </c>
       <c r="L212" t="n">
         <v>276820</v>
@@ -9649,7 +9649,7 @@
         <v>0.002728488702450349</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1839004571420237</v>
+        <v>0.183900335900377</v>
       </c>
       <c r="L213" t="n">
         <v>269275</v>
@@ -9693,7 +9693,7 @@
         <v>0.008390085246809287</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1938334829011819</v>
+        <v>0.1938333606423073</v>
       </c>
       <c r="L214" t="n">
         <v>252625</v>
@@ -9737,7 +9737,7 @@
         <v>0.004947096918527683</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1997394928456775</v>
+        <v>0.1997393699819763</v>
       </c>
       <c r="L215" t="n">
         <v>270700</v>
@@ -9781,7 +9781,7 @@
         <v>0.01812489143391738</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2214846409024884</v>
+        <v>0.2214845158118961</v>
       </c>
       <c r="L216" t="n">
         <v>285645</v>
@@ -9825,7 +9825,7 @@
         <v>-0.01010986998841001</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2091355899901246</v>
+        <v>0.2091354661641818</v>
       </c>
       <c r="L217" t="n">
         <v>293540</v>
@@ -9869,7 +9869,7 @@
         <v>-0.008881028369184807</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1983972225132313</v>
+        <v>0.1983970997869902</v>
       </c>
       <c r="L218" t="n">
         <v>276700</v>
@@ -9913,7 +9913,7 @@
         <v>0.007392514237605674</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2072563910429674</v>
+        <v>0.2072562674094709</v>
       </c>
       <c r="L219" t="n">
         <v>269820</v>
@@ -9957,7 +9957,7 @@
         <v>-0.004447426228829543</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2018872073045208</v>
+        <v>0.2018870842208751</v>
       </c>
       <c r="L220" t="n">
         <v>273315</v>
@@ -10001,7 +10001,7 @@
         <v>-0.002680342431489846</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1986657380249177</v>
+        <v>0.1986656152711783</v>
       </c>
       <c r="L221" t="n">
         <v>279310</v>
@@ -10045,7 +10045,7 @@
         <v>0.005599103951992035</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2053771920958105</v>
+        <v>0.2053770686547602</v>
       </c>
       <c r="L222" t="n">
         <v>238080</v>
@@ -10089,7 +10089,7 @@
         <v>0.00534516382212602</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2118201306550169</v>
+        <v>0.211820006554154</v>
       </c>
       <c r="L223" t="n">
         <v>238520</v>
@@ -10133,7 +10133,7 @@
         <v>-0.00664597344078266</v>
       </c>
       <c r="K224" t="n">
-        <v>0.203766406251678</v>
+        <v>0.203766282975586</v>
       </c>
       <c r="L224" t="n">
         <v>242775</v>
@@ -10177,7 +10177,7 @@
         <v>-0.007359541256282576</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1949072377219416</v>
+        <v>0.1949071153531052</v>
       </c>
       <c r="L225" t="n">
         <v>243490</v>
@@ -10221,7 +10221,7 @@
         <v>-0.005841346469056652</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1879273705480242</v>
+        <v>0.1879272488939867</v>
       </c>
       <c r="L226" t="n">
         <v>249005</v>
@@ -10265,7 +10265,7 @@
         <v>0.01242936128950389</v>
       </c>
       <c r="K227" t="n">
-        <v>0.202692549022256</v>
+        <v>0.2026924258561364</v>
       </c>
       <c r="L227" t="n">
         <v>258420</v>
@@ -10309,7 +10309,7 @@
         <v>0.0004464387969704831</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2032294776369667</v>
+        <v>0.2032293544158612</v>
       </c>
       <c r="L228" t="n">
         <v>269240</v>
@@ -10353,7 +10353,7 @@
         <v>-0.008701458998302325</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1927596256717599</v>
+        <v>0.1927595035228578</v>
       </c>
       <c r="L229" t="n">
         <v>276170</v>
@@ -10397,7 +10397,7 @@
         <v>0.009903187568912175</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2045717479694127</v>
+        <v>0.2045716246108471</v>
       </c>
       <c r="L230" t="n">
         <v>299790</v>
@@ -10441,7 +10441,7 @@
         <v>-0.0109203894681027</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1914173553393135</v>
+        <v>0.1914172333278714</v>
       </c>
       <c r="L231" t="n">
         <v>306680</v>
@@ -10485,7 +10485,7 @@
         <v>0.0006759526492763346</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1922226970570489</v>
+        <v>0.1922225749631328</v>
       </c>
       <c r="L232" t="n">
         <v>315640</v>
@@ -10529,7 +10529,7 @@
         <v>0.003828011353899763</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1967865390777603</v>
+        <v>0.1967864165164672</v>
       </c>
       <c r="L233" t="n">
         <v>314690</v>
@@ -10573,7 +10573,7 @@
         <v>-0.007626741557265837</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1876589574449996</v>
+        <v>0.1876588358184499</v>
       </c>
       <c r="L234" t="n">
         <v>325760</v>
@@ -10617,7 +10617,7 @@
         <v>0.0004520036688004936</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1881957836510486</v>
+        <v>0.1881956619695231</v>
       </c>
       <c r="L235" t="n">
         <v>309865</v>
@@ -10661,7 +10661,7 @@
         <v>-0.006326226613538988</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1806789878624204</v>
+        <v>0.1806788669506798</v>
       </c>
       <c r="L236" t="n">
         <v>302185</v>
@@ -10705,7 +10705,7 @@
         <v>-0.001364287719771151</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1790682020182879</v>
+        <v>0.1790680812715058</v>
       </c>
       <c r="L237" t="n">
         <v>294790</v>
@@ -10749,7 +10749,7 @@
         <v>-0.0004552969922604344</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1785313758122391</v>
+        <v>0.1785312551204326</v>
       </c>
       <c r="L238" t="n">
         <v>298815</v>
@@ -10793,7 +10793,7 @@
         <v>-0.0002278390861688573</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1782628603005527</v>
+        <v>0.1782627396362444</v>
       </c>
       <c r="L239" t="n">
         <v>295895</v>
@@ -10837,7 +10837,7 @@
         <v>-0.01161992090739217</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1645715390557427</v>
+        <v>0.1645714197935439</v>
       </c>
       <c r="L240" t="n">
         <v>290510</v>
@@ -10881,7 +10881,7 @@
         <v>0.007607146340067095</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1734306051768169</v>
+        <v>0.1734304850073731</v>
       </c>
       <c r="L241" t="n">
         <v>294355</v>
@@ -10925,7 +10925,7 @@
         <v>0.01098145852871557</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1863165847038917</v>
+        <v>0.1863164632148122</v>
       </c>
       <c r="L242" t="n">
         <v>299835</v>
@@ -10969,7 +10969,7 @@
         <v>0.006788935530233076</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1943704115158926</v>
+        <v>0.1943702892020316</v>
       </c>
       <c r="L243" t="n">
         <v>309020</v>
@@ -11013,7 +11013,7 @@
         <v>0.002921943099878366</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1978602938985203</v>
+        <v>0.1978601712272652</v>
       </c>
       <c r="L244" t="n">
         <v>311740</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1978602938985203</v>
+        <v>0.1978601712272652</v>
       </c>
       <c r="L245" t="n">
         <v>306765</v>
@@ -11101,7 +11101,7 @@
         <v>-0.01770500044242629</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1766521768650822</v>
+        <v>0.1766520563657217</v>
       </c>
       <c r="L246" t="n">
         <v>308255</v>
@@ -11145,7 +11145,7 @@
         <v>0.003650464082316063</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1809475033741073</v>
+        <v>0.1809473824348682</v>
       </c>
       <c r="L247" t="n">
         <v>303330</v>
@@ -11189,7 +11189,7 @@
         <v>0.0004545724551812125</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1814843295801563</v>
+        <v>0.1814842085859414</v>
       </c>
       <c r="L248" t="n">
         <v>294275</v>
@@ -11233,7 +11233,7 @@
         <v>0.004317256274769754</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1865851002155783</v>
+        <v>0.1865849786990004</v>
       </c>
       <c r="L249" t="n">
         <v>286390</v>
@@ -11277,7 +11277,7 @@
         <v>0.003619905987564342</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1908804267246034</v>
+        <v>0.1908803047681469</v>
       </c>
       <c r="L250" t="n">
         <v>256985</v>
@@ -11300,13 +11300,13 @@
         <v>44.79000091552734</v>
       </c>
       <c r="D251" t="n">
-        <v>44.32089996337891</v>
+        <v>44.31999969482422</v>
       </c>
       <c r="E251" t="n">
         <v>44.7400016784668</v>
       </c>
       <c r="F251" t="n">
-        <v>155314</v>
+        <v>155300</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -11321,10 +11321,10 @@
         <v>0.008566299884733564</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2010818655867859</v>
+        <v>0.2010817425856137</v>
       </c>
       <c r="L251" t="n">
-        <v>251240.7</v>
+        <v>251240</v>
       </c>
       <c r="M251" t="n">
         <v>44.16600017547607</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155314</v>
+        <v>155300</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
